--- a/admin/IB_OB_FLD.xlsx
+++ b/admin/IB_OB_FLD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RW\EAISI-Pythia\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RW\EAISI-Pythia\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1465EB9-FAF5-4C82-A8CD-8E8D63C1CAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C193D-FC77-4E4D-AAF2-9A88F1C48693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="-110" windowWidth="37430" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_LOADS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="615">
   <si>
     <t>SYSTID</t>
   </si>
@@ -1867,6 +1867,21 @@
   </si>
   <si>
     <t>ET/pythia/dat</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>SELECT 
+  max( /BIC/ASDSFRPR17~/BIC/VERSMON )
+ FROM 
+  /BIC/ASDSFRPR17</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1958,6 +1973,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1988,8 +2006,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:O226" totalsRowShown="0">
-  <autoFilter ref="A1:O226" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:Q226" totalsRowShown="0">
+  <autoFilter ref="A1:Q226" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="8">
       <filters>
         <filter val="OH_FRPR1"/>
@@ -2010,17 +2028,11 @@
         <filter val="SDSFRPR3_20250X"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="Init 2024"/>
-        <filter val="Last Version"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:O226">
     <sortCondition ref="L34:L226"/>
   </sortState>
-  <tableColumns count="15">
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SYSTID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CLIENT"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FILEINTERN"/>
@@ -2036,6 +2048,8 @@
     <tableColumn id="16" xr3:uid="{3B4693E2-EBA5-46B4-97C9-D51B4B0CBF82}" name="DATE"/>
     <tableColumn id="17" xr3:uid="{5F60B4F6-B6FE-4C4A-99FE-84BA73760AC4}" name="S1B -&gt; S2S"/>
     <tableColumn id="18" xr3:uid="{F55B9E97-2B13-448C-B575-C4B0834B5962}" name="Column1"/>
+    <tableColumn id="12" xr3:uid="{1CB3EDD4-A8FA-46CF-AA4F-81B2540CF816}" name="REPEAT"/>
+    <tableColumn id="13" xr3:uid="{03A11749-D3F7-4D01-A89C-2C1F0AB0E80A}" name="SQL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2045,8 +2059,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C087D875-1D81-4B7D-AAD3-C8B87BB4BDB3}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <autoFilter ref="A1:E18" xr:uid="{C087D875-1D81-4B7D-AAD3-C8B87BB4BDB3}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{C4C8CC9A-DFD0-4917-B03A-6C233D59BD9C}" name="SUB" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{1204FBB4-A7FE-4F81-9946-60FB97302759}" name="VAR" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C4C8CC9A-DFD0-4917-B03A-6C233D59BD9C}" name="SUB" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1204FBB4-A7FE-4F81-9946-60FB97302759}" name="VAR" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{5C8E7DB8-E281-4857-8059-8B8D87C650E1}" name="VALUE"/>
     <tableColumn id="3" xr3:uid="{E7C24960-E865-4339-94A3-C4BF4987FB11}" name="SELECT"/>
     <tableColumn id="4" xr3:uid="{98BA64D9-F774-47D3-960D-720A2B56AC5A}" name="Comment"/>
@@ -2334,29 +2348,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O226"/>
+  <dimension ref="A1:Q226"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G265" sqref="G265"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L232" sqref="L232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" customWidth="1"/>
+    <col min="12" max="12" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2402,8 +2417,14 @@
       <c r="O1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2447,7 +2468,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2491,7 +2512,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2532,7 +2553,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2576,7 +2597,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2620,7 +2641,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2658,7 +2679,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2699,7 +2720,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2743,7 +2764,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2784,7 +2805,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2828,7 +2849,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2869,7 +2890,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2913,7 +2934,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2954,7 +2975,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2998,7 +3019,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3060,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3083,7 +3104,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3124,7 +3145,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3165,7 +3186,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3209,7 +3230,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +3271,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3294,7 +3315,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3329,7 +3350,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3364,7 +3385,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3399,7 +3420,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3435,7 +3456,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -3471,7 +3492,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -3507,7 +3528,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3564,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3578,7 +3599,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -3616,7 +3637,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3654,7 +3675,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -3689,7 +3710,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3733,8 +3754,11 @@
       <c r="O34" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3778,8 +3802,11 @@
       <c r="O35" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Q35" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3822,7 +3849,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3862,7 +3889,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3907,7 +3934,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -3930,7 +3957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -3953,7 +3980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -3976,7 +4003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -3999,7 +4026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4022,7 +4049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4045,7 +4072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4068,7 +4095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4091,7 +4118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4114,7 +4141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4137,7 +4164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4160,7 +4187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4183,7 +4210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4206,7 +4233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4229,7 +4256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4252,7 +4279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4275,7 +4302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -4298,7 +4325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -4321,7 +4348,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4344,7 +4371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -4367,7 +4394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -4390,7 +4417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -4413,7 +4440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -4436,7 +4463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -4459,7 +4486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -4482,7 +4509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -4505,7 +4532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -4528,7 +4555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -4551,7 +4578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -4574,7 +4601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -4597,7 +4624,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -4620,7 +4647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -4643,7 +4670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -4666,7 +4693,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -4689,7 +4716,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -4712,7 +4739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -4735,7 +4762,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -4758,7 +4785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4808,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -4804,7 +4831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -4827,7 +4854,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -4850,7 +4877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -4873,7 +4900,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -4896,7 +4923,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -4919,7 +4946,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -4942,7 +4969,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -4965,7 +4992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -4988,7 +5015,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -5011,7 +5038,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -5034,7 +5061,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -5057,7 +5084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -5080,7 +5107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -5103,7 +5130,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -5126,7 +5153,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -5149,7 +5176,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -5172,7 +5199,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -5195,7 +5222,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -5218,7 +5245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -5241,7 +5268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -5264,7 +5291,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -5287,7 +5314,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -5310,7 +5337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -5333,7 +5360,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -5356,7 +5383,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -5379,7 +5406,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -5402,7 +5429,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -5425,7 +5452,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -5448,7 +5475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -5471,7 +5498,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -5494,7 +5521,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -5517,7 +5544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -5540,7 +5567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -5563,7 +5590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -5586,7 +5613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -5609,7 +5636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -5632,7 +5659,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -5655,7 +5682,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -5678,7 +5705,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -5701,7 +5728,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -5724,7 +5751,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -5747,7 +5774,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -5770,7 +5797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -5793,7 +5820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -5816,7 +5843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -5839,7 +5866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -5862,7 +5889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -5885,7 +5912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -5908,7 +5935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -5931,7 +5958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -5954,7 +5981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -5977,7 +6004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -6000,7 +6027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -6023,7 +6050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -6046,7 +6073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -6069,7 +6096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -6092,7 +6119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6115,7 +6142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -6138,7 +6165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -6161,7 +6188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -6184,7 +6211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -6207,7 +6234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -6230,7 +6257,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -6253,7 +6280,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -6276,7 +6303,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -6299,7 +6326,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -6322,7 +6349,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -6345,7 +6372,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -6368,7 +6395,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -6391,7 +6418,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -6414,7 +6441,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -6437,7 +6464,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -6460,7 +6487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -6483,7 +6510,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -6506,7 +6533,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -6529,7 +6556,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -6552,7 +6579,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -6575,7 +6602,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -6598,7 +6625,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -6621,7 +6648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -6644,7 +6671,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -6667,7 +6694,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -6690,7 +6717,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -6713,7 +6740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -6736,7 +6763,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -6759,7 +6786,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -6782,7 +6809,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -6805,7 +6832,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -6828,7 +6855,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -6851,7 +6878,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -6874,7 +6901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -6897,7 +6924,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -6920,7 +6947,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -6943,7 +6970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -6966,7 +6993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -6989,7 +7016,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -7012,7 +7039,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -7035,7 +7062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -7058,7 +7085,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -7081,7 +7108,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -7104,7 +7131,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -7127,7 +7154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -7150,7 +7177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -7173,7 +7200,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -7196,7 +7223,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -7219,7 +7246,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -7242,7 +7269,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -7265,7 +7292,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -7288,7 +7315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -7311,7 +7338,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -7334,7 +7361,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -7357,7 +7384,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7380,7 +7407,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -7403,7 +7430,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -7426,7 +7453,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -7449,7 +7476,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -7472,7 +7499,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -7495,7 +7522,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -7518,7 +7545,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -7541,7 +7568,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -7564,7 +7591,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -7587,7 +7614,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -7610,7 +7637,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -7633,7 +7660,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -7656,7 +7683,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -7679,7 +7706,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -7702,7 +7729,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -7725,7 +7752,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -7748,7 +7775,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -7771,7 +7798,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -7794,7 +7821,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -7817,7 +7844,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -7840,7 +7867,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -7863,7 +7890,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -7886,7 +7913,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -7909,7 +7936,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -7932,7 +7959,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -7955,7 +7982,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -7978,7 +8005,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -8001,7 +8028,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -8024,7 +8051,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -8047,7 +8074,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -8070,7 +8097,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -8093,7 +8120,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -8116,7 +8143,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -8161,7 +8188,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -8202,7 +8229,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -8247,7 +8274,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -8291,7 +8318,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -8369,19 +8396,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD7F955-AF0A-4814-8374-5E8081EA0170}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>602</v>
       </c>
@@ -8398,7 +8425,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>605</v>
       </c>
@@ -8409,7 +8436,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>606</v>
       </c>
@@ -8423,7 +8450,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>607</v>
       </c>
@@ -8440,7 +8467,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>607</v>
       </c>
@@ -8454,7 +8481,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>607</v>
       </c>
@@ -8468,7 +8495,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>607</v>
       </c>
@@ -8482,7 +8509,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>608</v>
       </c>
@@ -8496,7 +8523,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>608</v>
       </c>
@@ -8507,7 +8534,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>608</v>
       </c>
@@ -8518,7 +8545,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>609</v>
       </c>
@@ -8529,7 +8556,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>609</v>
       </c>
@@ -8543,7 +8570,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>609</v>
       </c>
@@ -8557,7 +8584,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>609</v>
       </c>
@@ -8571,7 +8598,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>609</v>
       </c>
@@ -8585,7 +8612,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>609</v>
       </c>
@@ -8599,7 +8626,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>609</v>
       </c>
@@ -8610,7 +8637,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>609</v>
       </c>

--- a/admin/IB_OB_FLD.xlsx
+++ b/admin/IB_OB_FLD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RW\EAISI-Pythia\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C193D-FC77-4E4D-AAF2-9A88F1C48693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089076E3-C333-43EB-8108-67AF1D56698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-110" windowWidth="37430" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_LOADS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="624">
   <si>
     <t>SYSTID</t>
   </si>
@@ -1882,13 +1882,76 @@
   max( /BIC/ASDSFRPR17~/BIC/VERSMON )
  FROM 
   /BIC/ASDSFRPR17</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>1. DTP select current Month for VERSMON, e.g. 2025xx
+2. extract
+3. AL11 SDSFRPR1.csv
+4. Move to folder C:\PW\OneDrive\ET\pythia\data\production\Bronze\sales\SDSFRLV1_2025xx.csv</t>
+  </si>
+  <si>
+    <t>1. DTP select current Month for VERSMON M-1 for CALMONTH, e.g. 2025xx
+2. extract
+3. AL11 SDSFRPR1.csv
+4. Move to folder C:\PW\OneDrive\ET\pythia\data\production\Bronze\sales\SDSFRPR1_20250X.csv</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>1. DTP select current Month for VERSMON, e.g. 2025xx
+2. extract
+3. AL11 SDSFRPR3.csv
+4. Move to folder C:\PW\OneDrive\ET\pythia\data\production\Bronze\sales\SDSFRLV3_2025xx.csv</t>
+  </si>
+  <si>
+    <t>1. DTP select current Month for VERSMON, e.g. 2025xx
+2. extract
+3. AL11 SDSFRPR2.csv
+4. Move to folder C:\PW\OneDrive\ET\pythia\data\production\Bronze\sales\SDSFRPR2_20250X.csv</t>
+  </si>
+  <si>
+    <t>✔202502</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0. POSTDR FORECAST MADE THIS MONTH (end of the month)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. DTP select current Month for VERSMON, e.g. 2025xx
+2. extract
+3. AL11 SDSFRPR4.csv
+4. Move to folder C:\PW\OneDrive\ET\pythia\data\production\Bronze\sales\SDSFRPR4_20250X.csv</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1922,6 +1985,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2006,8 +2077,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:Q226" totalsRowShown="0">
-  <autoFilter ref="A1:Q226" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:R226" totalsRowShown="0">
+  <autoFilter ref="A1:R226" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="8">
       <filters>
         <filter val="OH_FRPR1"/>
@@ -2016,23 +2087,16 @@
         <filter val="OH_FRPR4"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
+    <filterColumn colId="15">
       <filters>
-        <filter val="SDSFRLV1_202412_2021"/>
-        <filter val="SDSFRLV1_202501"/>
-        <filter val="SDSFRLV3_202412_2021"/>
-        <filter val="SDSFRLV3_202501"/>
-        <filter val="SDSFRPR1_2024XX"/>
-        <filter val="SDSFRPR1_20250X"/>
-        <filter val="SDSFRPR3_2024XX"/>
-        <filter val="SDSFRPR3_20250X"/>
+        <filter val="YES"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:O226">
     <sortCondition ref="L34:L226"/>
   </sortState>
-  <tableColumns count="17">
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SYSTID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CLIENT"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FILEINTERN"/>
@@ -2050,6 +2114,7 @@
     <tableColumn id="18" xr3:uid="{F55B9E97-2B13-448C-B575-C4B0834B5962}" name="Column1"/>
     <tableColumn id="12" xr3:uid="{1CB3EDD4-A8FA-46CF-AA4F-81B2540CF816}" name="REPEAT"/>
     <tableColumn id="13" xr3:uid="{03A11749-D3F7-4D01-A89C-2C1F0AB0E80A}" name="SQL"/>
+    <tableColumn id="15" xr3:uid="{3BDB626A-EE52-4078-9820-62AA5A68BF01}" name="Procedure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2348,30 +2413,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q226"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L232" sqref="L232"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="R231" sqref="R231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" customWidth="1"/>
-    <col min="8" max="8" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" customWidth="1"/>
-    <col min="12" max="12" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45.81640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" customWidth="1"/>
+    <col min="12" max="12" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.77734375" customWidth="1"/>
+    <col min="18" max="18" width="97.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2423,8 +2489,11 @@
       <c r="Q1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2468,7 +2537,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2512,7 +2581,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2553,7 +2622,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2597,7 +2666,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2641,7 +2710,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2679,7 +2748,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2720,7 +2789,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2764,7 +2833,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2805,7 +2874,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2849,7 +2918,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2959,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +3003,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2975,7 +3044,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +3088,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3060,7 +3129,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3104,7 +3173,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3145,7 +3214,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3186,7 +3255,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3230,7 +3299,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3271,7 +3340,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3315,7 +3384,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3419,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3385,7 +3454,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3420,7 +3489,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3456,7 +3525,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -3492,7 +3561,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -3528,7 +3597,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -3564,7 +3633,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3599,7 +3668,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -3637,7 +3706,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3675,7 +3744,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -3710,7 +3779,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3757,8 +3826,11 @@
       <c r="P34" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="R34" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3796,17 +3868,23 @@
         <v>566</v>
       </c>
       <c r="M35" s="2">
-        <v>45676</v>
+        <v>45698</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" t="s">
         <v>562</v>
       </c>
+      <c r="P35" t="s">
+        <v>619</v>
+      </c>
       <c r="Q35" s="8" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R35" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3843,13 +3921,21 @@
       <c r="L36" t="s">
         <v>559</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" s="2">
+        <v>45698</v>
+      </c>
       <c r="N36" s="4"/>
       <c r="O36" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P36" t="s">
+        <v>619</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3871,7 +3957,7 @@
       <c r="G37" t="s">
         <v>394</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="3" t="s">
         <v>552</v>
       </c>
       <c r="I37" t="s">
@@ -3886,10 +3972,21 @@
       <c r="L37" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" s="2">
+        <v>45698</v>
+      </c>
       <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O37" t="s">
+        <v>622</v>
+      </c>
+      <c r="P37" t="s">
+        <v>619</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3933,8 +4030,14 @@
       <c r="O38" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P38" t="s">
+        <v>612</v>
+      </c>
+      <c r="R38" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -3957,7 +4060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -3980,7 +4083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4003,7 +4106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4026,7 +4129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4049,7 +4152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4072,7 +4175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4095,7 +4198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4118,7 +4221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4141,7 +4244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4164,7 +4267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4187,7 +4290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4210,7 +4313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4233,7 +4336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4256,7 +4359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4279,7 +4382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4302,7 +4405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -4325,7 +4428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -4348,7 +4451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4371,7 +4474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -4394,7 +4497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -4417,7 +4520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -4440,7 +4543,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -4463,7 +4566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -4486,7 +4589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -4509,7 +4612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -4532,7 +4635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -4555,7 +4658,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -4578,7 +4681,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -4601,7 +4704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -4624,7 +4727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -4647,7 +4750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -4670,7 +4773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -4693,7 +4796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -4716,7 +4819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -4739,7 +4842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -4762,7 +4865,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -4785,7 +4888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -4808,7 +4911,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -4831,7 +4934,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -4854,7 +4957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -4877,7 +4980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -4900,7 +5003,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -4923,7 +5026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -4946,7 +5049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -4969,7 +5072,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -4992,7 +5095,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -5015,7 +5118,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -5038,7 +5141,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -5061,7 +5164,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -5084,7 +5187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -5107,7 +5210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -5130,7 +5233,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -5153,7 +5256,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -5176,7 +5279,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -5199,7 +5302,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -5222,7 +5325,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -5245,7 +5348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -5268,7 +5371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -5291,7 +5394,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -5314,7 +5417,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -5337,7 +5440,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -5360,7 +5463,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -5383,7 +5486,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -5406,7 +5509,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -5429,7 +5532,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -5452,7 +5555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -5475,7 +5578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -5498,7 +5601,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -5521,7 +5624,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -5544,7 +5647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -5567,7 +5670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -5590,7 +5693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -5613,7 +5716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -5636,7 +5739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -5659,7 +5762,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -5682,7 +5785,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -5705,7 +5808,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -5728,7 +5831,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -5751,7 +5854,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -5774,7 +5877,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -5797,7 +5900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -5820,7 +5923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -5843,7 +5946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -5866,7 +5969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -5889,7 +5992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -5912,7 +6015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -5935,7 +6038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -5958,7 +6061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -5981,7 +6084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6004,7 +6107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -6027,7 +6130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -6050,7 +6153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -6073,7 +6176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -6096,7 +6199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -6119,7 +6222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6142,7 +6245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -6165,7 +6268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -6188,7 +6291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -6211,7 +6314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -6234,7 +6337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -6257,7 +6360,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -6280,7 +6383,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -6303,7 +6406,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -6326,7 +6429,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -6349,7 +6452,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -6372,7 +6475,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -6395,7 +6498,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -6418,7 +6521,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -6441,7 +6544,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -6464,7 +6567,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -6487,7 +6590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -6510,7 +6613,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -6533,7 +6636,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -6556,7 +6659,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -6579,7 +6682,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -6602,7 +6705,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -6625,7 +6728,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -6648,7 +6751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -6671,7 +6774,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -6694,7 +6797,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -6717,7 +6820,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -6740,7 +6843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -6763,7 +6866,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -6786,7 +6889,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -6809,7 +6912,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -6832,7 +6935,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -6855,7 +6958,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -6878,7 +6981,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -6901,7 +7004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -6924,7 +7027,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -6947,7 +7050,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -6970,7 +7073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -6993,7 +7096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -7016,7 +7119,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -7039,7 +7142,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -7062,7 +7165,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -7085,7 +7188,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -7108,7 +7211,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -7131,7 +7234,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -7154,7 +7257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -7177,7 +7280,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -7200,7 +7303,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -7223,7 +7326,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -7246,7 +7349,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -7269,7 +7372,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -7292,7 +7395,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -7315,7 +7418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -7338,7 +7441,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -7361,7 +7464,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -7384,7 +7487,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7407,7 +7510,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -7430,7 +7533,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -7453,7 +7556,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -7476,7 +7579,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -7499,7 +7602,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -7522,7 +7625,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -7545,7 +7648,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -7568,7 +7671,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -7591,7 +7694,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -7614,7 +7717,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -7637,7 +7740,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -7660,7 +7763,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -7683,7 +7786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -7706,7 +7809,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -7729,7 +7832,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -7752,7 +7855,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -7775,7 +7878,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -7798,7 +7901,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -7821,7 +7924,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -7844,7 +7947,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -7867,7 +7970,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -7890,7 +7993,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -7913,7 +8016,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -7936,7 +8039,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -7959,7 +8062,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -7982,7 +8085,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -8005,7 +8108,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -8028,7 +8131,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -8051,7 +8154,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -8074,7 +8177,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -8097,7 +8200,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -8120,7 +8223,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -8143,7 +8246,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -8187,8 +8290,14 @@
       <c r="O222" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P222" t="s">
+        <v>612</v>
+      </c>
+      <c r="R222" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -8228,8 +8337,11 @@
       <c r="O223" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P223" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -8273,8 +8385,11 @@
       <c r="O224" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P224" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -8296,7 +8411,7 @@
       <c r="G225" t="s">
         <v>394</v>
       </c>
-      <c r="H225" t="s">
+      <c r="H225" s="3" t="s">
         <v>491</v>
       </c>
       <c r="I225" t="s">
@@ -8312,13 +8427,22 @@
         <v>530</v>
       </c>
       <c r="M225" s="2">
-        <v>45301</v>
+        <v>45698</v>
       </c>
       <c r="N225" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O225" t="s">
+        <v>622</v>
+      </c>
+      <c r="P225" t="s">
+        <v>619</v>
+      </c>
+      <c r="R225" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -8361,6 +8485,9 @@
       <c r="N226" s="4"/>
       <c r="O226" t="s">
         <v>563</v>
+      </c>
+      <c r="P226" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -8380,14 +8507,16 @@
     <hyperlink ref="H223" r:id="rId13" xr:uid="{41332EAD-A7D8-4B98-9AEA-B3C46DB09FE5}"/>
     <hyperlink ref="H34" r:id="rId14" xr:uid="{79082468-4277-4D99-964E-5A90DAA08494}"/>
     <hyperlink ref="H38" r:id="rId15" xr:uid="{BA35A75B-7054-45CE-8912-3BA4D8B39C31}"/>
+    <hyperlink ref="H37" r:id="rId16" xr:uid="{9C9BD80B-F08F-40DF-825D-DFE6F8944C50}"/>
+    <hyperlink ref="H225" r:id="rId17" xr:uid="{D11407FF-FDDA-44CC-ACB4-55BACEA0299A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId17"/>
+    <customPr name="_pios_id" r:id="rId19"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8400,15 +8529,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>602</v>
       </c>
@@ -8425,7 +8554,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>605</v>
       </c>
@@ -8436,7 +8565,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>606</v>
       </c>
@@ -8450,7 +8579,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>607</v>
       </c>
@@ -8467,7 +8596,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>607</v>
       </c>
@@ -8481,7 +8610,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>607</v>
       </c>
@@ -8495,7 +8624,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>607</v>
       </c>
@@ -8509,7 +8638,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>608</v>
       </c>
@@ -8523,7 +8652,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>608</v>
       </c>
@@ -8534,7 +8663,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>608</v>
       </c>
@@ -8545,7 +8674,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>609</v>
       </c>
@@ -8556,7 +8685,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>609</v>
       </c>
@@ -8570,7 +8699,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>609</v>
       </c>
@@ -8584,7 +8713,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>609</v>
       </c>
@@ -8598,7 +8727,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>609</v>
       </c>
@@ -8612,7 +8741,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>609</v>
       </c>
@@ -8626,7 +8755,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>609</v>
       </c>
@@ -8637,7 +8766,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>609</v>
       </c>
@@ -8653,8 +8782,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/admin/IB_OB_FLD.xlsx
+++ b/admin/IB_OB_FLD.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RW\EAISI-Pythia\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089076E3-C333-43EB-8108-67AF1D56698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472FAA34-076D-43F8-A257-448E73A96050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="-110" windowWidth="37190" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_LOADS" sheetId="1" r:id="rId1"/>
-    <sheet name="PATHS" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="PATHS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="625">
   <si>
     <t>SYSTID</t>
   </si>
@@ -1945,6 +1946,9 @@
 3. AL11 SDSFRPR4.csv
 4. Move to folder C:\PW\OneDrive\ET\pythia\data\production\Bronze\sales\SDSFRPR4_20250X.csv</t>
     </r>
+  </si>
+  <si>
+    <t>bwmt://WTB/sap/bw/modeling/dtpa/dtp_006eipubipunxgfylzhb6f3gv/m</t>
   </si>
 </sst>
 </file>
@@ -2415,29 +2419,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="119" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="119" workbookViewId="0">
       <selection activeCell="R231" sqref="R231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45.77734375" customWidth="1"/>
-    <col min="18" max="18" width="97.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" customWidth="1"/>
+    <col min="12" max="12" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.81640625" customWidth="1"/>
+    <col min="18" max="18" width="97.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2833,7 +2837,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3003,7 +3007,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3255,7 +3259,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3454,7 +3458,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3525,7 +3529,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -3561,7 +3565,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -3597,7 +3601,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -3633,7 +3637,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3668,7 +3672,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -3706,7 +3710,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3884,7 +3888,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3935,7 +3939,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4152,7 +4156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4175,7 +4179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4198,7 +4202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4221,7 +4225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4244,7 +4248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4267,7 +4271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4313,7 +4317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4336,7 +4340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4382,7 +4386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4405,7 +4409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -4428,7 +4432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -4497,7 +4501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -4566,7 +4570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -4612,7 +4616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -4658,7 +4662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -4681,7 +4685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -4727,7 +4731,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -4750,7 +4754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -4796,7 +4800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -4842,7 +4846,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -4888,7 +4892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -4911,7 +4915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -4934,7 +4938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -4957,7 +4961,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -4980,7 +4984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -5026,7 +5030,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -5095,7 +5099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -5118,7 +5122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -5164,7 +5168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -5256,7 +5260,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -5279,7 +5283,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -5302,7 +5306,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -5348,7 +5352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -5371,7 +5375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -5417,7 +5421,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -5463,7 +5467,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -5486,7 +5490,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -5555,7 +5559,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -5578,7 +5582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -5601,7 +5605,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -5624,7 +5628,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -5670,7 +5674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -5716,7 +5720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -5739,7 +5743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -5762,7 +5766,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -5785,7 +5789,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -5854,7 +5858,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -5969,7 +5973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -6015,7 +6019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -6038,7 +6042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -6061,7 +6065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6107,7 +6111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -6176,7 +6180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -6199,7 +6203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -6222,7 +6226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -6268,7 +6272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -6383,7 +6387,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -6406,7 +6410,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -6429,7 +6433,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -6452,7 +6456,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -6475,7 +6479,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -6521,7 +6525,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -6544,7 +6548,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -6567,7 +6571,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -6590,7 +6594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -6636,7 +6640,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -6751,7 +6755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -6820,7 +6824,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -6843,7 +6847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -6866,7 +6870,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -6889,7 +6893,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -6935,7 +6939,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -6958,7 +6962,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -7027,7 +7031,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -7073,7 +7077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -7096,7 +7100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -7119,7 +7123,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -7142,7 +7146,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -7165,7 +7169,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -7188,7 +7192,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -7211,7 +7215,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -7234,7 +7238,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -7257,7 +7261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -7303,7 +7307,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -7372,7 +7376,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -7395,7 +7399,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -7418,7 +7422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -7441,7 +7445,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -7464,7 +7468,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -7487,7 +7491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -7533,7 +7537,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -7556,7 +7560,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -7602,7 +7606,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -7740,7 +7744,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -7763,7 +7767,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -7786,7 +7790,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -7809,7 +7813,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -7832,7 +7836,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -7878,7 +7882,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -7901,7 +7905,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -7924,7 +7928,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -7947,7 +7951,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -7970,7 +7974,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -8016,7 +8020,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -8039,7 +8043,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -8062,7 +8066,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -8085,7 +8089,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -8108,7 +8112,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -8131,7 +8135,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -8154,7 +8158,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -8177,7 +8181,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -8200,7 +8204,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -8223,7 +8227,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -8246,7 +8250,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -8297,7 +8301,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -8341,7 +8345,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -8442,7 +8446,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -8522,6 +8526,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980CAAD-CF82-485F-B31B-6543207747EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{6DEC0F40-69A6-47A6-8790-B14A5C8F76B2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD7F955-AF0A-4814-8374-5E8081EA0170}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -8529,15 +8559,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>602</v>
       </c>
@@ -8554,7 +8584,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>605</v>
       </c>
@@ -8565,7 +8595,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>606</v>
       </c>
@@ -8579,7 +8609,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>607</v>
       </c>
@@ -8596,7 +8626,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>607</v>
       </c>
@@ -8610,7 +8640,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>607</v>
       </c>
@@ -8624,7 +8654,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>607</v>
       </c>
@@ -8638,7 +8668,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>608</v>
       </c>
@@ -8652,7 +8682,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>608</v>
       </c>
@@ -8663,7 +8693,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>608</v>
       </c>
@@ -8674,7 +8704,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>609</v>
       </c>
@@ -8685,7 +8715,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>609</v>
       </c>
@@ -8699,7 +8729,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>609</v>
       </c>
@@ -8713,7 +8743,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>609</v>
       </c>
@@ -8727,7 +8757,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>609</v>
       </c>
@@ -8741,7 +8771,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>609</v>
       </c>
@@ -8755,7 +8785,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>609</v>
       </c>
@@ -8766,7 +8796,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>609</v>
       </c>

--- a/admin/IB_OB_FLD.xlsx
+++ b/admin/IB_OB_FLD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RW\EAISI-Pythia\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472FAA34-076D-43F8-A257-448E73A96050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D418ACA-48FD-41F8-8BF5-469E64C8E384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="-110" windowWidth="37190" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="-120" windowWidth="27615" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_LOADS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="636">
   <si>
     <t>SYSTID</t>
   </si>
@@ -1950,12 +1950,45 @@
   <si>
     <t>bwmt://WTB/sap/bw/modeling/dtpa/dtp_006eipubipunxgfylzhb6f3gv/m</t>
   </si>
+  <si>
+    <t>RELEVANT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>YFUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y </t>
+  </si>
+  <si>
+    <t>Open-Orders?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>SAP Forecast with logic</t>
+  </si>
+  <si>
+    <t>SAP Forecast wo logic</t>
+  </si>
+  <si>
+    <t>Sales CSL GI - BOM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2001,8 +2034,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2021,6 +2060,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2035,7 +2080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2051,6 +2096,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2081,26 +2136,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:R226" totalsRowShown="0">
-  <autoFilter ref="A1:R226" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:S226" totalsRowShown="0">
+  <autoFilter ref="A1:S226" xr:uid="{00000000-0009-0000-0100-000003000000}">
+    <filterColumn colId="18">
       <filters>
-        <filter val="OH_FRPR1"/>
-        <filter val="OH_FRPR2"/>
-        <filter val="OH_FRPR3"/>
-        <filter val="OH_FRPR4"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="YES"/>
+        <filter val="Y"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:O226">
-    <sortCondition ref="L34:L226"/>
-  </sortState>
-  <tableColumns count="18">
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SYSTID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CLIENT"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FILEINTERN"/>
@@ -2119,6 +2163,7 @@
     <tableColumn id="12" xr3:uid="{1CB3EDD4-A8FA-46CF-AA4F-81B2540CF816}" name="REPEAT"/>
     <tableColumn id="13" xr3:uid="{03A11749-D3F7-4D01-A89C-2C1F0AB0E80A}" name="SQL"/>
     <tableColumn id="15" xr3:uid="{3BDB626A-EE52-4078-9820-62AA5A68BF01}" name="Procedure"/>
+    <tableColumn id="19" xr3:uid="{AD08E809-D9B6-4B2E-ABEE-BFAB5B97217A}" name="RELEVANT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2417,31 +2462,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R226"/>
+  <dimension ref="A1:S226"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="R231" sqref="R231"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" customWidth="1"/>
-    <col min="8" max="8" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" customWidth="1"/>
-    <col min="12" max="12" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45.81640625" customWidth="1"/>
-    <col min="18" max="18" width="97.81640625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2496,8 +2541,11 @@
       <c r="R1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2540,8 +2588,11 @@
       <c r="N2" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2584,8 +2635,11 @@
       <c r="N3" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2625,8 +2679,11 @@
       <c r="M4" s="2">
         <v>45297</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2669,8 +2726,11 @@
       <c r="N5" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2713,8 +2773,11 @@
       <c r="N6" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2751,8 +2814,11 @@
       <c r="L7" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2792,8 +2858,11 @@
       <c r="M8" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2836,8 +2905,11 @@
       <c r="N9" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2877,8 +2949,11 @@
       <c r="M10" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S10" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2921,8 +2996,11 @@
       <c r="N11" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2962,8 +3040,11 @@
       <c r="M12" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3006,8 +3087,11 @@
       <c r="N13" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3047,8 +3131,11 @@
       <c r="M14" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3091,8 +3178,11 @@
       <c r="N15" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S15" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3132,8 +3222,11 @@
       <c r="M16" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3176,8 +3269,11 @@
       <c r="N17" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S17" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3217,8 +3313,11 @@
       <c r="M18" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S18" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3258,8 +3357,11 @@
       <c r="M19" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3302,8 +3404,11 @@
       <c r="N20" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3343,8 +3448,11 @@
       <c r="M21" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S21" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3387,8 +3495,11 @@
       <c r="N22" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S22" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3410,7 +3521,7 @@
       <c r="G23" t="s">
         <v>394</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>482</v>
       </c>
       <c r="I23" t="s">
@@ -3422,8 +3533,14 @@
       <c r="L23" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R23" t="s">
+        <v>632</v>
+      </c>
+      <c r="S23" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3445,7 +3562,7 @@
       <c r="G24" t="s">
         <v>394</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>493</v>
       </c>
       <c r="I24" t="s">
@@ -3457,8 +3574,14 @@
       <c r="L24" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R24" t="s">
+        <v>631</v>
+      </c>
+      <c r="S24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3480,7 +3603,7 @@
       <c r="G25" t="s">
         <v>394</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>495</v>
       </c>
       <c r="I25" t="s">
@@ -3492,152 +3615,194 @@
       <c r="L25" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="R25" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="S25" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="J26" t="s">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="M26" s="11"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="J27" t="s">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="M27" s="11"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="J28" t="s">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="M28" s="11"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="J29" t="s">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="11"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3659,7 +3824,7 @@
       <c r="G30" t="s">
         <v>394</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>484</v>
       </c>
       <c r="I30" t="s">
@@ -3671,8 +3836,14 @@
       <c r="L30" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R30" t="s">
+        <v>633</v>
+      </c>
+      <c r="S30" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -3709,8 +3880,11 @@
       <c r="L31" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S31" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3747,8 +3921,11 @@
       <c r="L32" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S32" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -3770,7 +3947,7 @@
       <c r="G33" t="s">
         <v>394</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>470</v>
       </c>
       <c r="I33" t="s">
@@ -3782,8 +3959,14 @@
       <c r="L33" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R33" t="s">
+        <v>634</v>
+      </c>
+      <c r="S33" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3830,11 +4013,11 @@
       <c r="P34" t="s">
         <v>612</v>
       </c>
-      <c r="R34" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="S34" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3887,8 +4070,11 @@
       <c r="R35" s="8" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="S35" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3938,8 +4124,11 @@
       <c r="R36" s="8" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="S36" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3989,59 +4178,66 @@
       <c r="R37" s="8" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="S37" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="11">
         <v>45677</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="O38" t="s">
+      <c r="N38" s="12"/>
+      <c r="O38" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="R38" t="s">
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S38" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4064,7 +4260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4087,7 +4283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4110,7 +4306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4133,7 +4329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4156,7 +4352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4179,7 +4375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4202,7 +4398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4225,7 +4421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4248,7 +4444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4271,7 +4467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4317,7 +4513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4340,7 +4536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4363,7 +4559,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -4386,7 +4582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4409,7 +4605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -4432,7 +4628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -4455,7 +4651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4478,7 +4674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -4501,7 +4697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -4547,7 +4743,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -4570,7 +4766,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -4593,7 +4789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -4616,7 +4812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -4639,7 +4835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -4662,7 +4858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -4685,7 +4881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -4708,7 +4904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -4731,7 +4927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -4754,7 +4950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -4777,7 +4973,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -4800,7 +4996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -4823,7 +5019,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -4846,7 +5042,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -4869,7 +5065,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -4892,7 +5088,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -4915,7 +5111,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -4938,7 +5134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -4961,7 +5157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -4984,7 +5180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -5007,7 +5203,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -5030,7 +5226,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -5053,7 +5249,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -5076,7 +5272,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -5099,7 +5295,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -5122,7 +5318,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -5145,7 +5341,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -5168,7 +5364,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -5191,7 +5387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -5214,7 +5410,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -5237,7 +5433,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -5260,7 +5456,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -5283,7 +5479,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -5306,7 +5502,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -5329,7 +5525,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -5352,7 +5548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -5375,7 +5571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -5398,7 +5594,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -5421,7 +5617,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -5444,7 +5640,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -5467,7 +5663,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -5490,7 +5686,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -5513,7 +5709,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -5536,7 +5732,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -5559,7 +5755,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -5582,7 +5778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -5605,7 +5801,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -5628,7 +5824,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -5651,7 +5847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -5674,7 +5870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -5697,7 +5893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -5720,7 +5916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -5743,7 +5939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -5766,7 +5962,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -5789,7 +5985,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -5812,7 +6008,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -5835,7 +6031,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -5858,7 +6054,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -5881,7 +6077,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -5904,7 +6100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -5927,7 +6123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -5950,7 +6146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -5973,7 +6169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -5996,7 +6192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -6019,7 +6215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -6042,7 +6238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -6065,7 +6261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -6088,7 +6284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6111,7 +6307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -6134,7 +6330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -6157,7 +6353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -6180,7 +6376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -6203,7 +6399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -6226,7 +6422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6249,7 +6445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -6272,7 +6468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -6295,7 +6491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -6318,7 +6514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -6341,7 +6537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -6364,7 +6560,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -6387,7 +6583,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -6410,7 +6606,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -6433,7 +6629,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -6456,7 +6652,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -6479,7 +6675,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -6502,7 +6698,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -6525,7 +6721,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -6548,7 +6744,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -6571,7 +6767,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -6594,7 +6790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -6617,7 +6813,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -6640,7 +6836,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -6663,7 +6859,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -6686,7 +6882,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -6709,7 +6905,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -6732,7 +6928,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -6755,7 +6951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -6778,7 +6974,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -6801,7 +6997,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -6824,7 +7020,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -6847,7 +7043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -6870,7 +7066,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -6893,7 +7089,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -6916,7 +7112,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -6939,7 +7135,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -6962,7 +7158,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -6985,7 +7181,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -7008,7 +7204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -7031,7 +7227,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -7054,7 +7250,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -7077,7 +7273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -7100,7 +7296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -7123,7 +7319,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -7146,7 +7342,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -7169,7 +7365,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -7192,7 +7388,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -7215,7 +7411,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -7238,7 +7434,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -7261,7 +7457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -7284,7 +7480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -7307,7 +7503,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -7330,7 +7526,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -7353,7 +7549,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -7376,7 +7572,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -7399,7 +7595,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -7422,7 +7618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -7445,7 +7641,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -7468,7 +7664,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -7491,7 +7687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7514,7 +7710,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -7537,7 +7733,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -7560,7 +7756,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -7583,7 +7779,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -7606,7 +7802,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -7629,7 +7825,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -7652,7 +7848,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -7675,7 +7871,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -7698,7 +7894,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -7721,7 +7917,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -7744,7 +7940,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -7767,7 +7963,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -7790,7 +7986,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -7813,7 +8009,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -7836,7 +8032,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -7859,7 +8055,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -7882,7 +8078,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -7905,7 +8101,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -7928,7 +8124,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -7951,7 +8147,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -7974,7 +8170,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -7997,7 +8193,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -8020,7 +8216,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -8043,7 +8239,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -8066,7 +8262,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -8089,7 +8285,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -8112,7 +8308,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -8135,7 +8331,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -8158,7 +8354,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -8181,7 +8377,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -8203,8 +8399,11 @@
       <c r="G219" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S219" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -8226,8 +8425,11 @@
       <c r="G220" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S220" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -8250,102 +8452,113 @@
         <v>437</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>7</v>
-      </c>
-      <c r="B222" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" t="s">
+    <row r="222" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E222" t="s">
-        <v>21</v>
-      </c>
-      <c r="F222" t="s">
+      <c r="E222" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F222" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="H222" s="3" t="s">
+      <c r="H222" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="I222" t="s">
+      <c r="I222" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="J222" t="s">
+      <c r="J222" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="K222" t="s">
+      <c r="K222" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="L222" t="s">
+      <c r="L222" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="M222" s="2">
+      <c r="M222" s="11">
         <v>45676</v>
       </c>
-      <c r="N222" s="4"/>
-      <c r="O222" t="s">
+      <c r="N222" s="12"/>
+      <c r="O222" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="P222" t="s">
+      <c r="P222" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="R222" s="8" t="s">
+      <c r="Q222" s="9"/>
+      <c r="R222" s="13" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>7</v>
-      </c>
-      <c r="B223" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223" t="s">
+      <c r="S222" s="13" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E223" t="s">
-        <v>21</v>
-      </c>
-      <c r="F223" t="s">
+      <c r="E223" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F223" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="H223" s="3" t="s">
+      <c r="H223" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="I223" t="s">
+      <c r="I223" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="J223" t="s">
+      <c r="J223" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="K223" t="s">
+      <c r="K223" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="L223" t="s">
+      <c r="L223" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="O223" t="s">
+      <c r="M223" s="9"/>
+      <c r="N223" s="9"/>
+      <c r="O223" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="P223" t="s">
+      <c r="P223" s="9" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="Q223" s="9"/>
+      <c r="R223" s="9"/>
+      <c r="S223" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -8392,8 +8605,11 @@
       <c r="P224" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="225" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="S224" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -8445,53 +8661,63 @@
       <c r="R225" s="8" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>7</v>
-      </c>
-      <c r="B226" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" t="s">
+      <c r="S225" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E226" t="s">
-        <v>21</v>
-      </c>
-      <c r="F226" t="s">
+      <c r="E226" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F226" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="H226" s="3" t="s">
+      <c r="H226" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="I226" t="s">
+      <c r="I226" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="J226" t="s">
+      <c r="J226" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="K226" t="s">
+      <c r="K226" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="L226" t="s">
+      <c r="L226" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="M226" s="2">
+      <c r="M226" s="11">
         <v>45676</v>
       </c>
-      <c r="N226" s="4"/>
-      <c r="O226" t="s">
+      <c r="N226" s="12"/>
+      <c r="O226" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="P226" t="s">
+      <c r="P226" s="9" t="s">
         <v>612</v>
+      </c>
+      <c r="Q226" s="9"/>
+      <c r="R226" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="S226" s="9" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -8513,14 +8739,19 @@
     <hyperlink ref="H38" r:id="rId15" xr:uid="{BA35A75B-7054-45CE-8912-3BA4D8B39C31}"/>
     <hyperlink ref="H37" r:id="rId16" xr:uid="{9C9BD80B-F08F-40DF-825D-DFE6F8944C50}"/>
     <hyperlink ref="H225" r:id="rId17" xr:uid="{D11407FF-FDDA-44CC-ACB4-55BACEA0299A}"/>
+    <hyperlink ref="H25" r:id="rId18" xr:uid="{DADFA4FF-8E90-4746-B1CC-7BE31FFE5242}"/>
+    <hyperlink ref="H24" r:id="rId19" xr:uid="{48E30A8A-B593-4BD0-B11F-4227CE41E48F}"/>
+    <hyperlink ref="H23" r:id="rId20" xr:uid="{72FC06A3-B3E6-47F9-878B-C7F1A2915374}"/>
+    <hyperlink ref="H30" r:id="rId21" xr:uid="{ACF9812F-9979-4413-BBB6-30C8CD943A8B}"/>
+    <hyperlink ref="H33" r:id="rId22" xr:uid="{5ED470F7-742A-49D6-8738-A733D4F152CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId19"/>
+    <customPr name="_pios_id" r:id="rId24"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8529,16 +8760,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980CAAD-CF82-485F-B31B-6543207747EB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>624</v>
       </c>
@@ -8548,6 +8779,9 @@
     <hyperlink ref="A1" r:id="rId1" xr:uid="{6DEC0F40-69A6-47A6-8790-B14A5C8F76B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -8559,15 +8793,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>602</v>
       </c>
@@ -8584,7 +8818,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>605</v>
       </c>
@@ -8595,7 +8829,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>606</v>
       </c>
@@ -8609,7 +8843,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>607</v>
       </c>
@@ -8626,7 +8860,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>607</v>
       </c>
@@ -8640,7 +8874,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>607</v>
       </c>
@@ -8654,7 +8888,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>607</v>
       </c>
@@ -8668,7 +8902,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>608</v>
       </c>
@@ -8682,7 +8916,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>608</v>
       </c>
@@ -8693,7 +8927,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>608</v>
       </c>
@@ -8704,7 +8938,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>609</v>
       </c>
@@ -8715,7 +8949,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>609</v>
       </c>
@@ -8729,7 +8963,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>609</v>
       </c>
@@ -8743,7 +8977,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>609</v>
       </c>
@@ -8757,7 +8991,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>609</v>
       </c>
@@ -8771,7 +9005,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>609</v>
       </c>
@@ -8785,7 +9019,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>609</v>
       </c>
@@ -8796,7 +9030,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>609</v>
       </c>

--- a/admin/IB_OB_FLD.xlsx
+++ b/admin/IB_OB_FLD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RW\EAISI-Pythia\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089076E3-C333-43EB-8108-67AF1D56698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634E1197-965E-4778-B296-2592143037A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="-110" windowWidth="37190" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_LOADS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="629">
   <si>
     <t>SYSTID</t>
   </si>
@@ -1693,9 +1693,6 @@
   </si>
   <si>
     <t>DTP_006EICO68TUM23V5NXLG5RMS5</t>
-  </si>
-  <si>
-    <t>S1B -&gt; S2S</t>
   </si>
   <si>
     <t>OK</t>
@@ -1945,6 +1942,24 @@
 3. AL11 SDSFRPR4.csv
 4. Move to folder C:\PW\OneDrive\ET\pythia\data\production\Bronze\sales\SDSFRPR4_20250X.csv</t>
     </r>
+  </si>
+  <si>
+    <t>DD_SALES_QTY_2021</t>
+  </si>
+  <si>
+    <t>DD_SALES_QTY_2022</t>
+  </si>
+  <si>
+    <t>DD_SALES_QTY_2023</t>
+  </si>
+  <si>
+    <t>DTP_006EIZGR39XAWQANS1LNUZF2Y</t>
+  </si>
+  <si>
+    <t>DTP_006EIZGR39XAWQANYOZZI4HSQ</t>
+  </si>
+  <si>
+    <t>DTP_006EICO68TUM2BI6L8H246CK6</t>
   </si>
 </sst>
 </file>
@@ -2077,24 +2092,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:R226" totalsRowShown="0">
-  <autoFilter ref="A1:R226" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="OH_FRPR1"/>
-        <filter val="OH_FRPR2"/>
-        <filter val="OH_FRPR3"/>
-        <filter val="OH_FRPR4"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="YES"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:O226">
-    <sortCondition ref="L34:L226"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:R229" totalsRowShown="0">
+  <autoFilter ref="A1:R229" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:O229">
+    <sortCondition ref="L37:L229"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SYSTID"/>
@@ -2110,7 +2111,7 @@
     <tableColumn id="14" xr3:uid="{0AC1671D-0182-4717-955B-FD3590FAB436}" name="TYPE"/>
     <tableColumn id="11" xr3:uid="{08F3DE1E-8CBC-4F16-8A61-09622F84B44B}" name="TARGET_FILENAME"/>
     <tableColumn id="16" xr3:uid="{3B4693E2-EBA5-46B4-97C9-D51B4B0CBF82}" name="DATE"/>
-    <tableColumn id="17" xr3:uid="{5F60B4F6-B6FE-4C4A-99FE-84BA73760AC4}" name="S1B -&gt; S2S"/>
+    <tableColumn id="17" xr3:uid="{5F60B4F6-B6FE-4C4A-99FE-84BA73760AC4}" name="Bronze"/>
     <tableColumn id="18" xr3:uid="{F55B9E97-2B13-448C-B575-C4B0834B5962}" name="Column1"/>
     <tableColumn id="12" xr3:uid="{1CB3EDD4-A8FA-46CF-AA4F-81B2540CF816}" name="REPEAT"/>
     <tableColumn id="13" xr3:uid="{03A11749-D3F7-4D01-A89C-2C1F0AB0E80A}" name="SQL"/>
@@ -2413,31 +2414,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R226"/>
+  <dimension ref="A1:R229"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="R231" sqref="R231"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45.77734375" customWidth="1"/>
-    <col min="18" max="18" width="97.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" customWidth="1"/>
+    <col min="12" max="12" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="17" max="17" width="45.81640625" customWidth="1"/>
+    <col min="18" max="18" width="97.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2472,28 +2473,28 @@
         <v>477</v>
       </c>
       <c r="L1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M1" t="s">
         <v>545</v>
       </c>
       <c r="N1" t="s">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="O1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="Q1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2534,10 +2535,10 @@
         <v>45301</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2578,10 +2579,10 @@
         <v>45301</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2644,8 +2645,8 @@
       <c r="G5" t="s">
         <v>394</v>
       </c>
-      <c r="H5" t="s">
-        <v>548</v>
+      <c r="H5" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="I5" t="s">
         <v>463</v>
@@ -2656,17 +2657,17 @@
       <c r="K5" t="s">
         <v>538</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>546</v>
+      <c r="L5" t="s">
+        <v>623</v>
       </c>
       <c r="M5" s="2">
-        <v>45301</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>45825</v>
+      </c>
+      <c r="P5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2688,8 +2689,8 @@
       <c r="G6" t="s">
         <v>394</v>
       </c>
-      <c r="H6" t="s">
-        <v>464</v>
+      <c r="H6" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="I6" t="s">
         <v>463</v>
@@ -2700,17 +2701,17 @@
       <c r="K6" t="s">
         <v>538</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>547</v>
+      <c r="L6" t="s">
+        <v>624</v>
       </c>
       <c r="M6" s="2">
-        <v>45301</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>45825</v>
+      </c>
+      <c r="P6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2718,10 +2719,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -2732,23 +2733,32 @@
       <c r="G7" t="s">
         <v>394</v>
       </c>
-      <c r="H7" t="s">
-        <v>497</v>
+      <c r="H7" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="I7" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="J7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="L7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+      <c r="M7" s="2">
+        <v>45824</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="P7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2756,10 +2766,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>411</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>412</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -2768,28 +2778,34 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" t="s">
-        <v>517</v>
+        <v>394</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="I8" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
       <c r="J8" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="K8" t="s">
-        <v>540</v>
-      </c>
-      <c r="L8" t="s">
-        <v>529</v>
+        <v>538</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="M8" s="2">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>45824</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="P8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2797,10 +2813,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="D9" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -2811,29 +2827,32 @@
       <c r="G9" t="s">
         <v>394</v>
       </c>
-      <c r="H9" t="s">
-        <v>447</v>
+      <c r="H9" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="I9" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="J9" t="s">
         <v>479</v>
       </c>
       <c r="K9" t="s">
-        <v>540</v>
-      </c>
-      <c r="L9" t="s">
-        <v>529</v>
+        <v>538</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="M9" s="2">
-        <v>45301</v>
+        <v>45824</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+      <c r="P9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2841,10 +2860,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>413</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>414</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -2853,28 +2872,25 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>394</v>
       </c>
       <c r="H10" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="I10" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="J10" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="K10" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L10" t="s">
-        <v>523</v>
-      </c>
-      <c r="M10" s="2">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2882,10 +2898,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -2894,31 +2910,28 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>394</v>
+        <v>171</v>
       </c>
       <c r="H11" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="I11" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="J11" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="K11" t="s">
         <v>540</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>523</v>
+      <c r="L11" t="s">
+        <v>529</v>
       </c>
       <c r="M11" s="2">
         <v>45301</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2926,10 +2939,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>392</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>393</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2938,28 +2951,31 @@
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>394</v>
       </c>
       <c r="H12" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="I12" t="s">
-        <v>504</v>
+        <v>450</v>
       </c>
       <c r="J12" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="K12" t="s">
         <v>540</v>
       </c>
       <c r="L12" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="M12" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2967,10 +2983,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>402</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -2979,31 +2995,28 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>394</v>
+        <v>175</v>
       </c>
       <c r="H13" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="I13" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="J13" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="K13" t="s">
         <v>540</v>
       </c>
       <c r="L13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M13" s="2">
         <v>45301</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3011,10 +3024,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>399</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -3023,28 +3036,31 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>394</v>
       </c>
       <c r="H14" t="s">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="I14" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="J14" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="K14" t="s">
         <v>540</v>
       </c>
-      <c r="L14" t="s">
-        <v>525</v>
+      <c r="L14" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="M14" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3052,10 +3068,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>403</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>404</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -3064,31 +3080,28 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>394</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="I15" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="J15" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="K15" t="s">
         <v>540</v>
       </c>
       <c r="L15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M15" s="2">
         <v>45301</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3096,10 +3109,10 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>401</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>402</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -3108,28 +3121,31 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>394</v>
       </c>
       <c r="H16" t="s">
-        <v>510</v>
+        <v>456</v>
       </c>
       <c r="I16" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="J16" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="K16" t="s">
         <v>540</v>
       </c>
       <c r="L16" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M16" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3137,10 +3153,10 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>407</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>408</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -3149,31 +3165,28 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>394</v>
+        <v>181</v>
       </c>
       <c r="H17" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="I17" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="J17" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="K17" t="s">
         <v>540</v>
       </c>
       <c r="L17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M17" s="2">
         <v>45301</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3181,10 +3194,10 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>403</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>404</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -3193,28 +3206,31 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>179</v>
+        <v>394</v>
       </c>
       <c r="H18" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="I18" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="J18" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="K18" t="s">
         <v>540</v>
       </c>
       <c r="L18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M18" s="2">
         <v>45301</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3222,10 +3238,10 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -3234,13 +3250,13 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H19" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J19" t="s">
         <v>502</v>
@@ -3249,13 +3265,13 @@
         <v>540</v>
       </c>
       <c r="L19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M19" s="2">
         <v>45301</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3263,10 +3279,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -3278,10 +3294,10 @@
         <v>394</v>
       </c>
       <c r="H20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J20" t="s">
         <v>479</v>
@@ -3290,16 +3306,16 @@
         <v>540</v>
       </c>
       <c r="L20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M20" s="2">
         <v>45301</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3307,10 +3323,10 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -3319,13 +3335,13 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H21" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="I21" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="J21" t="s">
         <v>502</v>
@@ -3334,13 +3350,13 @@
         <v>540</v>
       </c>
       <c r="L21" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M21" s="2">
         <v>45301</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3348,10 +3364,10 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>395</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>396</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -3360,31 +3376,28 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>394</v>
+        <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="I22" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="J22" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="K22" t="s">
         <v>540</v>
       </c>
       <c r="L22" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="M22" s="2">
         <v>45301</v>
       </c>
-      <c r="N22" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3392,10 +3405,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -3407,19 +3420,28 @@
         <v>394</v>
       </c>
       <c r="H23" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="I23" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="J23" t="s">
-        <v>480</v>
+        <v>479</v>
+      </c>
+      <c r="K23" t="s">
+        <v>540</v>
       </c>
       <c r="L23" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="M23" s="2">
+        <v>45301</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3427,10 +3449,10 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>435</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>436</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -3439,22 +3461,28 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="H24" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="I24" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="J24" t="s">
-        <v>480</v>
+        <v>502</v>
+      </c>
+      <c r="K24" t="s">
+        <v>540</v>
       </c>
       <c r="L24" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="M24" s="2">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3462,10 +3490,10 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="D25" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -3477,19 +3505,28 @@
         <v>394</v>
       </c>
       <c r="H25" t="s">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="I25" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="J25" t="s">
-        <v>480</v>
+        <v>479</v>
+      </c>
+      <c r="K25" t="s">
+        <v>540</v>
       </c>
       <c r="L25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="M25" s="2">
+        <v>45301</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3497,10 +3534,10 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D26" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -3509,23 +3546,22 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="H26" t="s">
-        <v>471</v>
+        <v>482</v>
+      </c>
+      <c r="I26" t="s">
+        <v>481</v>
       </c>
       <c r="J26" t="s">
-        <v>473</v>
-      </c>
-      <c r="K26" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="L26" t="s">
-        <v>439</v>
-      </c>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -3533,10 +3569,10 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D27" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -3545,23 +3581,22 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="H27" t="s">
-        <v>474</v>
+        <v>493</v>
+      </c>
+      <c r="I27" t="s">
+        <v>492</v>
       </c>
       <c r="J27" t="s">
-        <v>473</v>
-      </c>
-      <c r="K27" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="L27" t="s">
-        <v>442</v>
-      </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -3569,10 +3604,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="D28" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
@@ -3581,23 +3616,22 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="H28" t="s">
-        <v>475</v>
+        <v>495</v>
+      </c>
+      <c r="I28" t="s">
+        <v>494</v>
       </c>
       <c r="J28" t="s">
-        <v>473</v>
-      </c>
-      <c r="K28" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="L28" t="s">
-        <v>444</v>
-      </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -3605,10 +3639,10 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D29" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -3620,20 +3654,20 @@
         <v>440</v>
       </c>
       <c r="H29" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J29" t="s">
         <v>473</v>
       </c>
       <c r="K29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L29" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3641,10 +3675,10 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="D30" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -3653,22 +3687,23 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="H30" t="s">
-        <v>484</v>
-      </c>
-      <c r="I30" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="J30" t="s">
-        <v>480</v>
+        <v>473</v>
+      </c>
+      <c r="K30" t="s">
+        <v>539</v>
       </c>
       <c r="L30" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -3676,10 +3711,10 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -3688,25 +3723,23 @@
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="H31" t="s">
-        <v>466</v>
-      </c>
-      <c r="I31" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="J31" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K31" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L31" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3714,10 +3747,10 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="D32" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -3726,25 +3759,23 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="H32" t="s">
-        <v>468</v>
-      </c>
-      <c r="I32" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="J32" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K32" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L32" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -3752,10 +3783,10 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D33" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -3767,19 +3798,19 @@
         <v>394</v>
       </c>
       <c r="H33" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="I33" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="J33" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L33" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3787,10 +3818,10 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D34" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -3801,36 +3832,23 @@
       <c r="G34" t="s">
         <v>394</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>572</v>
+      <c r="H34" t="s">
+        <v>466</v>
       </c>
       <c r="I34" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="J34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L34" t="s">
-        <v>570</v>
-      </c>
-      <c r="M34" s="2">
-        <v>45677</v>
-      </c>
-      <c r="N34" s="4"/>
-      <c r="O34" t="s">
-        <v>562</v>
-      </c>
-      <c r="P34" t="s">
-        <v>612</v>
-      </c>
-      <c r="R34" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3838,10 +3856,10 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D35" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -3852,39 +3870,23 @@
       <c r="G35" t="s">
         <v>394</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>490</v>
+      <c r="H35" t="s">
+        <v>468</v>
       </c>
       <c r="I35" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="J35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L35" t="s">
-        <v>566</v>
-      </c>
-      <c r="M35" s="2">
-        <v>45698</v>
-      </c>
-      <c r="N35" s="4"/>
-      <c r="O35" t="s">
-        <v>562</v>
-      </c>
-      <c r="P35" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q35" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="R35" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3892,10 +3894,10 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D36" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -3906,36 +3908,20 @@
       <c r="G36" t="s">
         <v>394</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>558</v>
+      <c r="H36" t="s">
+        <v>470</v>
       </c>
       <c r="I36" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="J36" t="s">
-        <v>480</v>
-      </c>
-      <c r="K36" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="L36" t="s">
-        <v>559</v>
-      </c>
-      <c r="M36" s="2">
-        <v>45698</v>
-      </c>
-      <c r="N36" s="4"/>
-      <c r="O36" t="s">
-        <v>560</v>
-      </c>
-      <c r="P36" t="s">
-        <v>619</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3943,10 +3929,10 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D37" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -3958,35 +3944,35 @@
         <v>394</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="I37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J37" t="s">
         <v>480</v>
       </c>
       <c r="K37" t="s">
-        <v>539</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>531</v>
+        <v>538</v>
+      </c>
+      <c r="L37" t="s">
+        <v>569</v>
       </c>
       <c r="M37" s="2">
-        <v>45698</v>
+        <v>45677</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" t="s">
-        <v>622</v>
+        <v>561</v>
       </c>
       <c r="P37" t="s">
-        <v>619</v>
-      </c>
-      <c r="R37" s="8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+      <c r="R37" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3994,10 +3980,10 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D38" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -4009,10 +3995,10 @@
         <v>394</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>573</v>
+        <v>490</v>
       </c>
       <c r="I38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J38" t="s">
         <v>480</v>
@@ -4021,23 +4007,26 @@
         <v>538</v>
       </c>
       <c r="L38" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="M38" s="2">
-        <v>45677</v>
+        <v>45698</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P38" t="s">
-        <v>612</v>
-      </c>
-      <c r="R38" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="R38" s="8" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4045,137 +4034,221 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
+        <v>427</v>
+      </c>
+      <c r="D39" t="s">
+        <v>428</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s">
+        <v>394</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="I39" t="s">
+        <v>485</v>
+      </c>
+      <c r="J39" t="s">
+        <v>480</v>
+      </c>
+      <c r="K39" t="s">
+        <v>538</v>
+      </c>
+      <c r="L39" t="s">
+        <v>558</v>
+      </c>
+      <c r="M39" s="2">
+        <v>45698</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" t="s">
+        <v>559</v>
+      </c>
+      <c r="P39" t="s">
+        <v>618</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>429</v>
+      </c>
+      <c r="D40" t="s">
+        <v>430</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>394</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="I40" t="s">
+        <v>486</v>
+      </c>
+      <c r="J40" t="s">
+        <v>480</v>
+      </c>
+      <c r="K40" t="s">
+        <v>539</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="M40" s="2">
+        <v>45698</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" t="s">
+        <v>621</v>
+      </c>
+      <c r="P40" t="s">
+        <v>618</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>431</v>
+      </c>
+      <c r="D41" t="s">
+        <v>432</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>394</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="I41" t="s">
+        <v>487</v>
+      </c>
+      <c r="J41" t="s">
+        <v>480</v>
+      </c>
+      <c r="K41" t="s">
+        <v>538</v>
+      </c>
+      <c r="L41" t="s">
+        <v>570</v>
+      </c>
+      <c r="M41" s="2">
+        <v>45677</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" t="s">
+        <v>561</v>
+      </c>
+      <c r="P41" t="s">
+        <v>611</v>
+      </c>
+      <c r="R41" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
         <v>11</v>
       </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
         <v>13</v>
       </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
         <v>12</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" t="s">
-        <v>21</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4183,240 +4256,240 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D48" t="s">
         <v>25</v>
       </c>
-      <c r="E45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
         <v>14</v>
       </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
         <v>26</v>
       </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
         <v>12</v>
       </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
         <v>54</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D50" t="s">
         <v>52</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E50" t="s">
         <v>18</v>
       </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
         <v>28</v>
       </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
         <v>59</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>60</v>
       </c>
-      <c r="E49" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
         <v>14</v>
       </c>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
         <v>31</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>32</v>
       </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
         <v>33</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
         <v>35</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>36</v>
       </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
         <v>14</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
         <v>38</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D55" t="s">
         <v>39</v>
-      </c>
-      <c r="E52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" t="s">
-        <v>46</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -4425,10 +4498,10 @@
         <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -4436,10 +4509,10 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -4448,10 +4521,10 @@
         <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4459,10 +4532,10 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -4471,251 +4544,251 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
         <v>51</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D61" t="s">
         <v>52</v>
-      </c>
-      <c r="E58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
       </c>
       <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
         <v>14</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
         <v>91</v>
       </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
         <v>108</v>
       </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
         <v>63</v>
       </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
         <v>64</v>
       </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
-        <v>71</v>
-      </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -4724,10 +4797,10 @@
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -4735,7 +4808,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
         <v>66</v>
@@ -4747,205 +4820,205 @@
         <v>14</v>
       </c>
       <c r="G69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
         <v>74</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D73" t="s">
         <v>75</v>
       </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
         <v>77</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D74" t="s">
         <v>75</v>
       </c>
-      <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
         <v>78</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D75" t="s">
         <v>75</v>
       </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D76" t="s">
         <v>66</v>
       </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
         <v>14</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G76" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
         <v>80</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D77" t="s">
         <v>81</v>
       </c>
-      <c r="E74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
         <v>82</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D78" t="s">
         <v>83</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>33</v>
-      </c>
-      <c r="G76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" t="s">
-        <v>32</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
@@ -4954,133 +5027,133 @@
         <v>33</v>
       </c>
       <c r="G78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
         <v>118</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D82" t="s">
         <v>119</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E82" t="s">
         <v>18</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F82" t="s">
         <v>14</v>
       </c>
-      <c r="G79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
         <v>92</v>
       </c>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
         <v>12</v>
       </c>
-      <c r="F80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
         <v>93</v>
-      </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>95</v>
-      </c>
-      <c r="D82" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>99</v>
-      </c>
-      <c r="D83" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" t="s">
-        <v>21</v>
-      </c>
-      <c r="F83" t="s">
-        <v>97</v>
-      </c>
-      <c r="G83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>101</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -5089,13 +5162,13 @@
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -5103,10 +5176,10 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E85" t="s">
         <v>21</v>
@@ -5118,7 +5191,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -5126,10 +5199,10 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
@@ -5141,7 +5214,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -5149,13 +5222,13 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
         <v>97</v>
@@ -5164,7 +5237,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -5172,22 +5245,22 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E88" t="s">
         <v>21</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -5195,22 +5268,22 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F89" t="s">
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -5218,22 +5291,22 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -5241,22 +5314,22 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -5264,7 +5337,7 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -5273,13 +5346,13 @@
         <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -5287,7 +5360,7 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -5299,10 +5372,10 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -5310,7 +5383,7 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -5319,13 +5392,13 @@
         <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -5333,10 +5406,10 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D95" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -5345,10 +5418,10 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -5356,22 +5429,22 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -5379,7 +5452,7 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -5388,13 +5461,13 @@
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -5402,137 +5475,137 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E98" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
       </c>
       <c r="G98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
+        <v>144</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D101" t="s">
+        <v>124</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
         <v>125</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D102" t="s">
         <v>126</v>
       </c>
-      <c r="E99" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="E102" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" t="s">
         <v>14</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G102" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
         <v>127</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D103" t="s">
         <v>128</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E103" t="s">
         <v>18</v>
-      </c>
-      <c r="F100" t="s">
-        <v>40</v>
-      </c>
-      <c r="G100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>129</v>
-      </c>
-      <c r="D101" t="s">
-        <v>130</v>
-      </c>
-      <c r="E101" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>131</v>
-      </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>132</v>
-      </c>
-      <c r="D103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" t="s">
-        <v>12</v>
       </c>
       <c r="F103" t="s">
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -5540,22 +5613,22 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E104" t="s">
         <v>18</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -5563,22 +5636,22 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D105" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -5586,22 +5659,22 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D106" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -5609,22 +5682,22 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E107" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -5632,10 +5705,10 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
@@ -5647,7 +5720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -5655,191 +5728,191 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>147</v>
+      </c>
+      <c r="D111" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>144</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
         <v>149</v>
       </c>
-      <c r="D109" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
         <v>97</v>
       </c>
-      <c r="G109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
         <v>150</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D113" t="s">
         <v>151</v>
       </c>
-      <c r="E110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" t="s">
         <v>144</v>
       </c>
-      <c r="G110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
         <v>232</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D114" t="s">
         <v>233</v>
       </c>
-      <c r="E111" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" t="s">
         <v>97</v>
       </c>
-      <c r="G111" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="G114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
         <v>250</v>
       </c>
-      <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
         <v>12</v>
       </c>
-      <c r="F112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
         <v>152</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D116" t="s">
         <v>153</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E116" t="s">
         <v>154</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F116" t="s">
         <v>155</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G116" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
         <v>157</v>
-      </c>
-      <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" t="s">
-        <v>159</v>
-      </c>
-      <c r="D115" t="s">
-        <v>160</v>
-      </c>
-      <c r="E115" t="s">
-        <v>21</v>
-      </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>162</v>
-      </c>
-      <c r="D116" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" t="s">
-        <v>163</v>
-      </c>
-      <c r="G116" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>165</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
@@ -5848,188 +5921,188 @@
         <v>12</v>
       </c>
       <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>159</v>
+      </c>
+      <c r="D118" t="s">
+        <v>160</v>
+      </c>
+      <c r="E118" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
         <v>163</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>165</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>163</v>
+      </c>
+      <c r="G120" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
         <v>167</v>
       </c>
-      <c r="D118" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
         <v>12</v>
       </c>
-      <c r="F118" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
         <v>267</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D122" t="s">
         <v>268</v>
       </c>
-      <c r="E119" t="s">
-        <v>21</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="E122" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" t="s">
         <v>269</v>
       </c>
-      <c r="G119" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
         <v>274</v>
       </c>
-      <c r="D120" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
         <v>97</v>
       </c>
-      <c r="G120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
         <v>275</v>
       </c>
-      <c r="D121" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
         <v>97</v>
       </c>
-      <c r="G121" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
         <v>286</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D125" t="s">
         <v>287</v>
       </c>
-      <c r="E122" t="s">
-        <v>21</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
-        <v>301</v>
-      </c>
-      <c r="D123" t="s">
-        <v>302</v>
-      </c>
-      <c r="E123" t="s">
-        <v>154</v>
-      </c>
-      <c r="F123" t="s">
-        <v>144</v>
-      </c>
-      <c r="G123" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" t="s">
-        <v>303</v>
-      </c>
-      <c r="D124" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" t="s">
-        <v>338</v>
-      </c>
-      <c r="D125" t="s">
-        <v>339</v>
-      </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -6038,7 +6111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -6046,22 +6119,22 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="D126" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="E126" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="G126" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -6069,22 +6142,22 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="D127" t="s">
-        <v>343</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G127" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6092,10 +6165,10 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D128" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E128" t="s">
         <v>18</v>
@@ -6107,7 +6180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -6115,10 +6188,10 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D129" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E129" t="s">
         <v>18</v>
@@ -6130,7 +6203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -6138,10 +6211,10 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D130" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E130" t="s">
         <v>18</v>
@@ -6153,7 +6226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -6161,10 +6234,10 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D131" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E131" t="s">
         <v>18</v>
@@ -6176,7 +6249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -6184,10 +6257,10 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D132" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E132" t="s">
         <v>18</v>
@@ -6199,7 +6272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -6207,10 +6280,10 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D133" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E133" t="s">
         <v>18</v>
@@ -6222,7 +6295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -6230,10 +6303,10 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D134" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E134" t="s">
         <v>18</v>
@@ -6245,7 +6318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -6253,10 +6326,10 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D135" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E135" t="s">
         <v>18</v>
@@ -6268,7 +6341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -6276,10 +6349,10 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D136" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E136" t="s">
         <v>18</v>
@@ -6291,7 +6364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -6299,10 +6372,10 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D137" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E137" t="s">
         <v>18</v>
@@ -6314,7 +6387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -6322,10 +6395,10 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D138" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E138" t="s">
         <v>18</v>
@@ -6337,7 +6410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -6345,217 +6418,217 @@
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>209</v>
+        <v>360</v>
       </c>
       <c r="D139" t="s">
-        <v>210</v>
+        <v>361</v>
       </c>
       <c r="E139" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
       </c>
       <c r="G139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>362</v>
+      </c>
+      <c r="D140" t="s">
+        <v>363</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>364</v>
+      </c>
+      <c r="D141" t="s">
+        <v>365</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>209</v>
+      </c>
+      <c r="D142" t="s">
+        <v>210</v>
+      </c>
+      <c r="E142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>7</v>
-      </c>
-      <c r="B140" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
         <v>212</v>
       </c>
-      <c r="D140" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s">
         <v>12</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F143" t="s">
         <v>97</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G143" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
         <v>214</v>
       </c>
-      <c r="D141" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" t="s">
         <v>12</v>
-      </c>
-      <c r="F141" t="s">
-        <v>97</v>
-      </c>
-      <c r="G141" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>7</v>
-      </c>
-      <c r="B142" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" t="s">
-        <v>216</v>
-      </c>
-      <c r="D142" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
-        <v>97</v>
-      </c>
-      <c r="G142" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>7</v>
-      </c>
-      <c r="B143" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" t="s">
-        <v>218</v>
-      </c>
-      <c r="D143" t="s">
-        <v>219</v>
-      </c>
-      <c r="E143" t="s">
-        <v>21</v>
-      </c>
-      <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>7</v>
-      </c>
-      <c r="B144" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" t="s">
-        <v>221</v>
-      </c>
-      <c r="D144" t="s">
-        <v>222</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
       </c>
       <c r="F144" t="s">
         <v>97</v>
       </c>
       <c r="G144" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>216</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s">
+        <v>97</v>
+      </c>
+      <c r="G145" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>218</v>
+      </c>
+      <c r="D146" t="s">
+        <v>219</v>
+      </c>
+      <c r="E146" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>221</v>
+      </c>
+      <c r="D147" t="s">
+        <v>222</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>97</v>
+      </c>
+      <c r="G147" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>7</v>
-      </c>
-      <c r="B145" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
         <v>224</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D148" t="s">
         <v>225</v>
-      </c>
-      <c r="E145" t="s">
-        <v>21</v>
-      </c>
-      <c r="F145" t="s">
-        <v>144</v>
-      </c>
-      <c r="G145" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" t="s">
-        <v>226</v>
-      </c>
-      <c r="D146" t="s">
-        <v>227</v>
-      </c>
-      <c r="E146" t="s">
-        <v>21</v>
-      </c>
-      <c r="F146" t="s">
-        <v>144</v>
-      </c>
-      <c r="G146" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" t="s">
-        <v>228</v>
-      </c>
-      <c r="D147" t="s">
-        <v>229</v>
-      </c>
-      <c r="E147" t="s">
-        <v>21</v>
-      </c>
-      <c r="F147" t="s">
-        <v>144</v>
-      </c>
-      <c r="G147" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" t="s">
-        <v>230</v>
-      </c>
-      <c r="D148" t="s">
-        <v>231</v>
       </c>
       <c r="E148" t="s">
         <v>21</v>
@@ -6564,102 +6637,102 @@
         <v>144</v>
       </c>
       <c r="G148" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>226</v>
+      </c>
+      <c r="D149" t="s">
+        <v>227</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" t="s">
+        <v>144</v>
+      </c>
+      <c r="G149" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>228</v>
+      </c>
+      <c r="D150" t="s">
+        <v>229</v>
+      </c>
+      <c r="E150" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150" t="s">
+        <v>144</v>
+      </c>
+      <c r="G150" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="D151" t="s">
+        <v>231</v>
+      </c>
+      <c r="E151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" t="s">
+        <v>144</v>
+      </c>
+      <c r="G151" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
         <v>366</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D152" t="s">
         <v>367</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E152" t="s">
         <v>18</v>
-      </c>
-      <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>7</v>
-      </c>
-      <c r="B150" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
-        <v>234</v>
-      </c>
-      <c r="D150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" t="s">
-        <v>97</v>
-      </c>
-      <c r="G150" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" t="s">
-        <v>236</v>
-      </c>
-      <c r="D151" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" t="s">
-        <v>97</v>
-      </c>
-      <c r="G151" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>7</v>
-      </c>
-      <c r="B152" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" t="s">
-        <v>237</v>
-      </c>
-      <c r="D152" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152" t="s">
-        <v>12</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -6667,7 +6740,7 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -6676,13 +6749,13 @@
         <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G153" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -6690,7 +6763,7 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -6699,13 +6772,13 @@
         <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G154" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -6713,7 +6786,7 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -6725,10 +6798,10 @@
         <v>14</v>
       </c>
       <c r="G155" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -6736,7 +6809,7 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
@@ -6748,10 +6821,10 @@
         <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -6759,7 +6832,7 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -6771,10 +6844,10 @@
         <v>14</v>
       </c>
       <c r="G157" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -6782,22 +6855,22 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G158" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -6805,22 +6878,22 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -6828,22 +6901,22 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>368</v>
+        <v>246</v>
       </c>
       <c r="D160" t="s">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
         <v>14</v>
       </c>
       <c r="G160" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -6851,206 +6924,206 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
+        <v>248</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>249</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>368</v>
+      </c>
+      <c r="D163" t="s">
+        <v>369</v>
+      </c>
+      <c r="E163" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
         <v>251</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D164" t="s">
         <v>252</v>
       </c>
-      <c r="E161" t="s">
-        <v>21</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="E164" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" t="s">
         <v>14</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G164" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
         <v>254</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D165" t="s">
         <v>255</v>
       </c>
-      <c r="E162" t="s">
-        <v>21</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="E165" t="s">
+        <v>21</v>
+      </c>
+      <c r="F165" t="s">
         <v>14</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G165" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>7</v>
-      </c>
-      <c r="B163" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
         <v>257</v>
       </c>
-      <c r="D163" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" t="s">
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
         <v>259</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D167" t="s">
         <v>260</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E167" t="s">
         <v>154</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F167" t="s">
         <v>155</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G167" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>7</v>
-      </c>
-      <c r="B165" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
         <v>261</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D168" t="s">
         <v>262</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E168" t="s">
         <v>18</v>
       </c>
-      <c r="F165" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" t="s">
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>7</v>
-      </c>
-      <c r="B166" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
         <v>264</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D169" t="s">
         <v>265</v>
       </c>
-      <c r="E166" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>7</v>
-      </c>
-      <c r="B167" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" t="s">
-        <v>370</v>
-      </c>
-      <c r="D167" t="s">
-        <v>371</v>
-      </c>
-      <c r="E167" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>7</v>
-      </c>
-      <c r="B168" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" t="s">
-        <v>270</v>
-      </c>
-      <c r="D168" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" t="s">
-        <v>271</v>
-      </c>
-      <c r="D169" t="s">
-        <v>272</v>
-      </c>
       <c r="E169" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -7058,10 +7131,10 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D170" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E170" t="s">
         <v>18</v>
@@ -7073,7 +7146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -7081,22 +7154,22 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="D171" t="s">
-        <v>381</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
       </c>
       <c r="G171" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -7104,145 +7177,145 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
+        <v>271</v>
+      </c>
+      <c r="D172" t="s">
+        <v>272</v>
+      </c>
+      <c r="E172" t="s">
+        <v>21</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>372</v>
+      </c>
+      <c r="D173" t="s">
+        <v>373</v>
+      </c>
+      <c r="E173" t="s">
+        <v>18</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>380</v>
+      </c>
+      <c r="D174" t="s">
+        <v>381</v>
+      </c>
+      <c r="E174" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
         <v>276</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D175" t="s">
         <v>36</v>
       </c>
-      <c r="E172" t="s">
-        <v>21</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="E175" t="s">
+        <v>21</v>
+      </c>
+      <c r="F175" t="s">
         <v>97</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G175" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
         <v>277</v>
       </c>
-      <c r="D173" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" t="s">
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>7</v>
-      </c>
-      <c r="B174" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
         <v>278</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D177" t="s">
         <v>279</v>
       </c>
-      <c r="E174" t="s">
-        <v>21</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="E177" t="s">
+        <v>21</v>
+      </c>
+      <c r="F177" t="s">
         <v>40</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G177" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>7</v>
-      </c>
-      <c r="B175" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
         <v>281</v>
-      </c>
-      <c r="D175" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" t="s">
-        <v>40</v>
-      </c>
-      <c r="G175" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>7</v>
-      </c>
-      <c r="B176" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" t="s">
-        <v>282</v>
-      </c>
-      <c r="D176" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" t="s">
-        <v>97</v>
-      </c>
-      <c r="G176" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>7</v>
-      </c>
-      <c r="B177" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" t="s">
-        <v>283</v>
-      </c>
-      <c r="D177" t="s">
-        <v>284</v>
-      </c>
-      <c r="E177" t="s">
-        <v>21</v>
-      </c>
-      <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B178" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" t="s">
-        <v>27</v>
       </c>
       <c r="D178" t="s">
         <v>10</v>
@@ -7251,185 +7324,185 @@
         <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>282</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" t="s">
+        <v>97</v>
+      </c>
+      <c r="G179" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>283</v>
+      </c>
+      <c r="D180" t="s">
+        <v>284</v>
+      </c>
+      <c r="E180" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>7</v>
-      </c>
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
         <v>288</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D182" t="s">
         <v>289</v>
       </c>
-      <c r="E179" t="s">
-        <v>21</v>
-      </c>
-      <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" t="s">
-        <v>290</v>
-      </c>
-      <c r="D180" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>7</v>
-      </c>
-      <c r="B181" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" t="s">
-        <v>291</v>
-      </c>
-      <c r="D181" t="s">
-        <v>36</v>
-      </c>
-      <c r="E181" t="s">
-        <v>10</v>
-      </c>
-      <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" t="s">
-        <v>293</v>
-      </c>
-      <c r="D182" t="s">
-        <v>36</v>
-      </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
       </c>
       <c r="G182" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>290</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>291</v>
+      </c>
+      <c r="D184" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>293</v>
+      </c>
+      <c r="D185" t="s">
+        <v>36</v>
+      </c>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>7</v>
-      </c>
-      <c r="B183" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
         <v>295</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D186" t="s">
         <v>296</v>
-      </c>
-      <c r="E183" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>7</v>
-      </c>
-      <c r="B184" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" t="s">
-        <v>297</v>
-      </c>
-      <c r="D184" t="s">
-        <v>298</v>
-      </c>
-      <c r="E184" t="s">
-        <v>21</v>
-      </c>
-      <c r="F184" t="s">
-        <v>299</v>
-      </c>
-      <c r="G184" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" t="s">
-        <v>30</v>
-      </c>
-      <c r="D185" t="s">
-        <v>10</v>
-      </c>
-      <c r="E185" t="s">
-        <v>12</v>
-      </c>
-      <c r="F185" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>7</v>
-      </c>
-      <c r="B186" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" t="s">
-        <v>304</v>
-      </c>
-      <c r="D186" t="s">
-        <v>305</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
@@ -7438,10 +7511,10 @@
         <v>14</v>
       </c>
       <c r="G186" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -7449,22 +7522,22 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D187" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="G187" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -7472,22 +7545,22 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="D188" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G188" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7495,22 +7568,22 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D189" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E189" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
       </c>
       <c r="G189" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -7518,22 +7591,22 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>308</v>
       </c>
       <c r="E190" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -7541,10 +7614,10 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D191" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
@@ -7553,10 +7626,10 @@
         <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -7564,22 +7637,22 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D192" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F192" t="s">
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -7587,22 +7660,22 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D193" t="s">
-        <v>321</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -7610,10 +7683,10 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D194" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
@@ -7625,7 +7698,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -7633,10 +7706,10 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D195" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
@@ -7648,7 +7721,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -7656,217 +7729,217 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
+        <v>320</v>
+      </c>
+      <c r="D196" t="s">
+        <v>321</v>
+      </c>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>322</v>
+      </c>
+      <c r="D197" t="s">
+        <v>323</v>
+      </c>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" t="s">
+        <v>14</v>
+      </c>
+      <c r="G197" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>324</v>
+      </c>
+      <c r="D198" t="s">
+        <v>325</v>
+      </c>
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
         <v>326</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D199" t="s">
         <v>327</v>
       </c>
-      <c r="E196" t="s">
-        <v>21</v>
-      </c>
-      <c r="F196" t="s">
+      <c r="E199" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199" t="s">
         <v>40</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G199" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>7</v>
-      </c>
-      <c r="B197" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
         <v>329</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D200" t="s">
         <v>330</v>
       </c>
-      <c r="E197" t="s">
-        <v>10</v>
-      </c>
-      <c r="F197" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" t="s">
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" t="s">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
         <v>332</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D201" t="s">
         <v>107</v>
       </c>
-      <c r="E198" t="s">
-        <v>21</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="E201" t="s">
+        <v>21</v>
+      </c>
+      <c r="F201" t="s">
         <v>97</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G201" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>7</v>
-      </c>
-      <c r="B199" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" t="s">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
         <v>333</v>
       </c>
-      <c r="D199" t="s">
-        <v>10</v>
-      </c>
-      <c r="E199" t="s">
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" t="s">
         <v>12</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F202" t="s">
         <v>97</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G202" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" t="s">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
         <v>334</v>
       </c>
-      <c r="D200" t="s">
-        <v>10</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
         <v>12</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F203" t="s">
         <v>14</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G203" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>7</v>
-      </c>
-      <c r="B201" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" t="s">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
         <v>336</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D204" t="s">
         <v>337</v>
       </c>
-      <c r="E201" t="s">
-        <v>21</v>
-      </c>
-      <c r="F201" t="s">
+      <c r="E204" t="s">
+        <v>21</v>
+      </c>
+      <c r="F204" t="s">
         <v>14</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G204" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>7</v>
-      </c>
-      <c r="B202" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" t="s">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
         <v>189</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E202" t="s">
-        <v>21</v>
-      </c>
-      <c r="F202" t="s">
-        <v>40</v>
-      </c>
-      <c r="G202" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>7</v>
-      </c>
-      <c r="B203" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" t="s">
-        <v>191</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E203" t="s">
-        <v>21</v>
-      </c>
-      <c r="F203" t="s">
-        <v>40</v>
-      </c>
-      <c r="G203" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>7</v>
-      </c>
-      <c r="B204" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" t="s">
-        <v>193</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E204" t="s">
-        <v>21</v>
-      </c>
-      <c r="F204" t="s">
-        <v>40</v>
-      </c>
-      <c r="G204" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>7</v>
-      </c>
-      <c r="B205" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" t="s">
-        <v>195</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E205" t="s">
         <v>21</v>
@@ -7875,10 +7948,10 @@
         <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -7886,10 +7959,10 @@
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E206" t="s">
         <v>21</v>
@@ -7898,10 +7971,10 @@
         <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -7909,10 +7982,10 @@
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E207" t="s">
         <v>21</v>
@@ -7921,10 +7994,10 @@
         <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -7932,10 +8005,10 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E208" t="s">
         <v>21</v>
@@ -7944,10 +8017,10 @@
         <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -7955,10 +8028,10 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E209" t="s">
         <v>21</v>
@@ -7967,10 +8040,10 @@
         <v>40</v>
       </c>
       <c r="G209" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -7978,10 +8051,10 @@
         <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E210" t="s">
         <v>21</v>
@@ -7990,125 +8063,125 @@
         <v>40</v>
       </c>
       <c r="G210" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>201</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E211" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" t="s">
+        <v>40</v>
+      </c>
+      <c r="G211" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>203</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E212" t="s">
+        <v>21</v>
+      </c>
+      <c r="F212" t="s">
+        <v>40</v>
+      </c>
+      <c r="G212" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" t="s">
+      <c r="D213" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E213" t="s">
+        <v>21</v>
+      </c>
+      <c r="F213" t="s">
+        <v>40</v>
+      </c>
+      <c r="G213" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
         <v>374</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D214" t="s">
         <v>375</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E214" t="s">
         <v>18</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F214" t="s">
         <v>14</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G214" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>7</v>
-      </c>
-      <c r="B212" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" t="s">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" t="s">
         <v>376</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D215" t="s">
         <v>377</v>
       </c>
-      <c r="E212" t="s">
-        <v>21</v>
-      </c>
-      <c r="F212" t="s">
-        <v>14</v>
-      </c>
-      <c r="G212" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>7</v>
-      </c>
-      <c r="B213" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213" t="s">
-        <v>378</v>
-      </c>
-      <c r="D213" t="s">
-        <v>379</v>
-      </c>
-      <c r="E213" t="s">
-        <v>18</v>
-      </c>
-      <c r="F213" t="s">
-        <v>14</v>
-      </c>
-      <c r="G213" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>7</v>
-      </c>
-      <c r="B214" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" t="s">
-        <v>207</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E214" t="s">
-        <v>21</v>
-      </c>
-      <c r="F214" t="s">
-        <v>40</v>
-      </c>
-      <c r="G214" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>7</v>
-      </c>
-      <c r="B215" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" t="s">
-        <v>382</v>
-      </c>
-      <c r="D215" t="s">
-        <v>10</v>
-      </c>
       <c r="E215" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F215" t="s">
         <v>14</v>
       </c>
       <c r="G215" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -8116,22 +8189,22 @@
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D216" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F216" t="s">
-        <v>386</v>
+        <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -8139,22 +8212,22 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>387</v>
-      </c>
-      <c r="D217" t="s">
-        <v>388</v>
+        <v>207</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="E217" t="s">
         <v>21</v>
       </c>
       <c r="F217" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G217" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -8162,102 +8235,102 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D218" t="s">
         <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F218" t="s">
         <v>14</v>
       </c>
       <c r="G218" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>384</v>
+      </c>
+      <c r="D219" t="s">
+        <v>385</v>
+      </c>
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" t="s">
+        <v>386</v>
+      </c>
+      <c r="G219" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>387</v>
+      </c>
+      <c r="D220" t="s">
+        <v>388</v>
+      </c>
+      <c r="E220" t="s">
+        <v>21</v>
+      </c>
+      <c r="F220" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>390</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" t="s">
+        <v>14</v>
+      </c>
+      <c r="G221" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>7</v>
-      </c>
-      <c r="B219" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" t="s">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
         <v>397</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D222" t="s">
         <v>398</v>
-      </c>
-      <c r="E219" t="s">
-        <v>21</v>
-      </c>
-      <c r="F219" t="s">
-        <v>40</v>
-      </c>
-      <c r="G219" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>7</v>
-      </c>
-      <c r="B220" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" t="s">
-        <v>405</v>
-      </c>
-      <c r="D220" t="s">
-        <v>406</v>
-      </c>
-      <c r="E220" t="s">
-        <v>21</v>
-      </c>
-      <c r="F220" t="s">
-        <v>40</v>
-      </c>
-      <c r="G220" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>7</v>
-      </c>
-      <c r="B221" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" t="s">
-        <v>437</v>
-      </c>
-      <c r="D221" t="s">
-        <v>10</v>
-      </c>
-      <c r="E221" t="s">
-        <v>10</v>
-      </c>
-      <c r="F221" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>7</v>
-      </c>
-      <c r="B222" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" t="s">
-        <v>431</v>
-      </c>
-      <c r="D222" t="s">
-        <v>432</v>
       </c>
       <c r="E222" t="s">
         <v>21</v>
@@ -8268,36 +8341,8 @@
       <c r="G222" t="s">
         <v>394</v>
       </c>
-      <c r="H222" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="I222" t="s">
-        <v>487</v>
-      </c>
-      <c r="J222" t="s">
-        <v>480</v>
-      </c>
-      <c r="K222" t="s">
-        <v>538</v>
-      </c>
-      <c r="L222" t="s">
-        <v>567</v>
-      </c>
-      <c r="M222" s="2">
-        <v>45676</v>
-      </c>
-      <c r="N222" s="4"/>
-      <c r="O222" t="s">
-        <v>562</v>
-      </c>
-      <c r="P222" t="s">
-        <v>612</v>
-      </c>
-      <c r="R222" s="8" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -8305,10 +8350,10 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="D223" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="E223" t="s">
         <v>21</v>
@@ -8319,29 +8364,8 @@
       <c r="G223" t="s">
         <v>394</v>
       </c>
-      <c r="H223" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="I223" t="s">
-        <v>487</v>
-      </c>
-      <c r="J223" t="s">
-        <v>480</v>
-      </c>
-      <c r="K223" t="s">
-        <v>538</v>
-      </c>
-      <c r="L223" t="s">
-        <v>569</v>
-      </c>
-      <c r="O223" t="s">
-        <v>560</v>
-      </c>
-      <c r="P223" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -8349,47 +8373,22 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D224" t="s">
-        <v>428</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>394</v>
-      </c>
-      <c r="H224" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="I224" t="s">
-        <v>485</v>
-      </c>
-      <c r="J224" t="s">
-        <v>480</v>
-      </c>
-      <c r="K224" t="s">
-        <v>538</v>
-      </c>
-      <c r="L224" t="s">
-        <v>561</v>
-      </c>
-      <c r="M224" s="2">
-        <v>45676</v>
-      </c>
-      <c r="N224" s="4"/>
-      <c r="O224" t="s">
-        <v>563</v>
-      </c>
-      <c r="P224" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -8397,10 +8396,10 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D225" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E225" t="s">
         <v>21</v>
@@ -8412,37 +8411,35 @@
         <v>394</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I225" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J225" t="s">
         <v>480</v>
       </c>
       <c r="K225" t="s">
-        <v>539</v>
-      </c>
-      <c r="L225" s="3" t="s">
-        <v>530</v>
+        <v>538</v>
+      </c>
+      <c r="L225" t="s">
+        <v>566</v>
       </c>
       <c r="M225" s="2">
-        <v>45698</v>
-      </c>
-      <c r="N225" s="4" t="s">
-        <v>554</v>
-      </c>
+        <v>45676</v>
+      </c>
+      <c r="N225" s="4"/>
       <c r="O225" t="s">
-        <v>622</v>
+        <v>561</v>
       </c>
       <c r="P225" t="s">
+        <v>611</v>
+      </c>
+      <c r="R225" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="R225" s="8" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -8465,7 +8462,7 @@
         <v>394</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="I226" t="s">
         <v>487</v>
@@ -8477,46 +8474,196 @@
         <v>538</v>
       </c>
       <c r="L226" t="s">
-        <v>565</v>
-      </c>
-      <c r="M226" s="2">
+        <v>568</v>
+      </c>
+      <c r="O226" t="s">
+        <v>559</v>
+      </c>
+      <c r="P226" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>427</v>
+      </c>
+      <c r="D227" t="s">
+        <v>428</v>
+      </c>
+      <c r="E227" t="s">
+        <v>21</v>
+      </c>
+      <c r="F227" t="s">
+        <v>40</v>
+      </c>
+      <c r="G227" t="s">
+        <v>394</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I227" t="s">
+        <v>485</v>
+      </c>
+      <c r="J227" t="s">
+        <v>480</v>
+      </c>
+      <c r="K227" t="s">
+        <v>538</v>
+      </c>
+      <c r="L227" t="s">
+        <v>560</v>
+      </c>
+      <c r="M227" s="2">
         <v>45676</v>
       </c>
-      <c r="N226" s="4"/>
-      <c r="O226" t="s">
+      <c r="N227" s="4"/>
+      <c r="O227" t="s">
+        <v>562</v>
+      </c>
+      <c r="P227" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>433</v>
+      </c>
+      <c r="D228" t="s">
+        <v>434</v>
+      </c>
+      <c r="E228" t="s">
+        <v>21</v>
+      </c>
+      <c r="F228" t="s">
+        <v>40</v>
+      </c>
+      <c r="G228" t="s">
+        <v>394</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="I228" t="s">
+        <v>488</v>
+      </c>
+      <c r="J228" t="s">
+        <v>480</v>
+      </c>
+      <c r="K228" t="s">
+        <v>539</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="M228" s="2">
+        <v>45698</v>
+      </c>
+      <c r="N228" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="O228" t="s">
+        <v>621</v>
+      </c>
+      <c r="P228" t="s">
+        <v>618</v>
+      </c>
+      <c r="R228" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" t="s">
+        <v>431</v>
+      </c>
+      <c r="D229" t="s">
+        <v>432</v>
+      </c>
+      <c r="E229" t="s">
+        <v>21</v>
+      </c>
+      <c r="F229" t="s">
+        <v>40</v>
+      </c>
+      <c r="G229" t="s">
+        <v>394</v>
+      </c>
+      <c r="H229" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="P226" t="s">
-        <v>612</v>
+      <c r="I229" t="s">
+        <v>487</v>
+      </c>
+      <c r="J229" t="s">
+        <v>480</v>
+      </c>
+      <c r="K229" t="s">
+        <v>538</v>
+      </c>
+      <c r="L229" t="s">
+        <v>564</v>
+      </c>
+      <c r="M229" s="2">
+        <v>45676</v>
+      </c>
+      <c r="N229" s="4"/>
+      <c r="O229" t="s">
+        <v>562</v>
+      </c>
+      <c r="P229" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1" xr:uid="{60F239C9-7000-4310-B526-00F9A909BB8F}"/>
-    <hyperlink ref="L6" r:id="rId2" xr:uid="{09C5F614-FEA5-4BE6-9AF4-B58DB17E1928}"/>
-    <hyperlink ref="L11" r:id="rId3" location="BWProcessChain-change?chainId=LC_DYN_PERKZ_W" xr:uid="{C1C40E84-A93D-462B-B319-3E48BD1A540C}"/>
+    <hyperlink ref="L8" r:id="rId1" xr:uid="{60F239C9-7000-4310-B526-00F9A909BB8F}"/>
+    <hyperlink ref="L9" r:id="rId2" xr:uid="{09C5F614-FEA5-4BE6-9AF4-B58DB17E1928}"/>
+    <hyperlink ref="L14" r:id="rId3" location="BWProcessChain-change?chainId=LC_DYN_PERKZ_W" xr:uid="{C1C40E84-A93D-462B-B319-3E48BD1A540C}"/>
     <hyperlink ref="L2" r:id="rId4" xr:uid="{B815E112-DF4A-4A6A-A208-89D4A68B3073}"/>
-    <hyperlink ref="L37" r:id="rId5" xr:uid="{5F8E6099-3933-4328-A7B9-6AADD4120355}"/>
-    <hyperlink ref="L225" r:id="rId6" xr:uid="{0A889FA1-F3A2-4F5E-A6DB-7EFD384A1B18}"/>
+    <hyperlink ref="L40" r:id="rId5" xr:uid="{5F8E6099-3933-4328-A7B9-6AADD4120355}"/>
+    <hyperlink ref="L228" r:id="rId6" xr:uid="{0A889FA1-F3A2-4F5E-A6DB-7EFD384A1B18}"/>
     <hyperlink ref="L3" r:id="rId7" xr:uid="{98AA934F-9CE8-4A25-88E5-A2AE5ECA8184}"/>
-    <hyperlink ref="H224" r:id="rId8" xr:uid="{91DB4B05-B319-4BAE-9536-832A996B0A93}"/>
-    <hyperlink ref="H36" r:id="rId9" xr:uid="{B69C832F-9AED-4383-BEAE-88891483874D}"/>
-    <hyperlink ref="H35" r:id="rId10" xr:uid="{5168AB38-C1A4-4BD6-B77F-65D4F0E10F24}"/>
-    <hyperlink ref="H226" r:id="rId11" xr:uid="{AEDB3E06-2740-4324-9CEB-961490958D39}"/>
-    <hyperlink ref="H222" r:id="rId12" xr:uid="{40520CCD-1EAC-4359-8806-34234068BCB5}"/>
-    <hyperlink ref="H223" r:id="rId13" xr:uid="{41332EAD-A7D8-4B98-9AEA-B3C46DB09FE5}"/>
-    <hyperlink ref="H34" r:id="rId14" xr:uid="{79082468-4277-4D99-964E-5A90DAA08494}"/>
-    <hyperlink ref="H38" r:id="rId15" xr:uid="{BA35A75B-7054-45CE-8912-3BA4D8B39C31}"/>
-    <hyperlink ref="H37" r:id="rId16" xr:uid="{9C9BD80B-F08F-40DF-825D-DFE6F8944C50}"/>
-    <hyperlink ref="H225" r:id="rId17" xr:uid="{D11407FF-FDDA-44CC-ACB4-55BACEA0299A}"/>
+    <hyperlink ref="H227" r:id="rId8" xr:uid="{91DB4B05-B319-4BAE-9536-832A996B0A93}"/>
+    <hyperlink ref="H39" r:id="rId9" xr:uid="{B69C832F-9AED-4383-BEAE-88891483874D}"/>
+    <hyperlink ref="H38" r:id="rId10" xr:uid="{5168AB38-C1A4-4BD6-B77F-65D4F0E10F24}"/>
+    <hyperlink ref="H229" r:id="rId11" xr:uid="{AEDB3E06-2740-4324-9CEB-961490958D39}"/>
+    <hyperlink ref="H225" r:id="rId12" xr:uid="{40520CCD-1EAC-4359-8806-34234068BCB5}"/>
+    <hyperlink ref="H226" r:id="rId13" xr:uid="{41332EAD-A7D8-4B98-9AEA-B3C46DB09FE5}"/>
+    <hyperlink ref="H37" r:id="rId14" xr:uid="{79082468-4277-4D99-964E-5A90DAA08494}"/>
+    <hyperlink ref="H41" r:id="rId15" xr:uid="{BA35A75B-7054-45CE-8912-3BA4D8B39C31}"/>
+    <hyperlink ref="H40" r:id="rId16" xr:uid="{9C9BD80B-F08F-40DF-825D-DFE6F8944C50}"/>
+    <hyperlink ref="H228" r:id="rId17" xr:uid="{D11407FF-FDDA-44CC-ACB4-55BACEA0299A}"/>
+    <hyperlink ref="H8" r:id="rId18" xr:uid="{6F3F9826-38F4-42E7-A0B5-0FF7DE8B50D7}"/>
+    <hyperlink ref="H9" r:id="rId19" xr:uid="{2D5FB69D-2D58-4858-BE91-169CC59504A3}"/>
+    <hyperlink ref="H7" r:id="rId20" xr:uid="{B5DA7ABF-824A-4D10-A69E-FA04FBAF5468}"/>
+    <hyperlink ref="H6" r:id="rId21" xr:uid="{CCF15709-7CA0-45F4-AE32-B95BCA2149A6}"/>
+    <hyperlink ref="H5" r:id="rId22" xr:uid="{869A39E9-CC15-43F2-B4B0-115C939D74C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId19"/>
+    <customPr name="_pios_id" r:id="rId24"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8529,179 +8676,179 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D4" t="s">
         <v>584</v>
       </c>
-      <c r="E1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="E4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="E3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C12" t="s">
+        <v>594</v>
+      </c>
+      <c r="E12" t="s">
         <v>603</v>
       </c>
-      <c r="C4" t="s">
-        <v>575</v>
-      </c>
-      <c r="D4" t="s">
-        <v>585</v>
-      </c>
-      <c r="E4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C6" t="s">
-        <v>577</v>
-      </c>
-      <c r="E6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C7" t="s">
-        <v>578</v>
-      </c>
-      <c r="E7" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="C9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="C10" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C11" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C12" t="s">
-        <v>595</v>
-      </c>
-      <c r="E12" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>519</v>
@@ -8710,12 +8857,12 @@
         <v>519</v>
       </c>
       <c r="E13" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>520</v>
@@ -8724,12 +8871,12 @@
         <v>520</v>
       </c>
       <c r="E14" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>536</v>
@@ -8738,12 +8885,12 @@
         <v>536</v>
       </c>
       <c r="E15" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>534</v>
@@ -8752,23 +8899,23 @@
         <v>534</v>
       </c>
       <c r="E16" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>535</v>
@@ -8777,7 +8924,7 @@
         <v>535</v>
       </c>
       <c r="E18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/admin/IB_OB_FLD.xlsx
+++ b/admin/IB_OB_FLD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RW\EAISI-Pythia\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634E1197-965E-4778-B296-2592143037A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F657AA0-B77D-47F0-BED9-37FE06B2D5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="-110" windowWidth="37190" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DATA_LOADS" sheetId="1" r:id="rId1"/>
     <sheet name="PATHS" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="14"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="629">
   <si>
     <t>SYSTID</t>
   </si>
@@ -1953,13 +1953,13 @@
     <t>DD_SALES_QTY_2023</t>
   </si>
   <si>
-    <t>DTP_006EIZGR39XAWQANS1LNUZF2Y</t>
-  </si>
-  <si>
-    <t>DTP_006EIZGR39XAWQANYOZZI4HSQ</t>
-  </si>
-  <si>
     <t>DTP_006EICO68TUM2BI6L8H246CK6</t>
+  </si>
+  <si>
+    <t>DTP_006EICO68TVC45HDCJLST83KQ</t>
+  </si>
+  <si>
+    <t>DTP_006EICO68TVC45HDHUE4L6TQY</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2062,6 +2062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2416,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R229"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2646,7 +2647,7 @@
         <v>394</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I5" t="s">
         <v>463</v>
@@ -2663,6 +2664,9 @@
       <c r="M5" s="2">
         <v>45825</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="P5" t="s">
         <v>611</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>394</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I6" t="s">
         <v>463</v>
@@ -2707,6 +2711,9 @@
       <c r="M6" s="2">
         <v>45825</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="P6" t="s">
         <v>611</v>
       </c>
@@ -2734,7 +2741,7 @@
         <v>394</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I7" t="s">
         <v>463</v>
@@ -2792,7 +2799,7 @@
       <c r="K8" t="s">
         <v>538</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="9" t="s">
         <v>546</v>
       </c>
       <c r="M8" s="2">
@@ -2839,7 +2846,7 @@
       <c r="K9" t="s">
         <v>538</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="9" t="s">
         <v>547</v>
       </c>
       <c r="M9" s="2">
@@ -8634,36 +8641,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L8" r:id="rId1" xr:uid="{60F239C9-7000-4310-B526-00F9A909BB8F}"/>
-    <hyperlink ref="L9" r:id="rId2" xr:uid="{09C5F614-FEA5-4BE6-9AF4-B58DB17E1928}"/>
-    <hyperlink ref="L14" r:id="rId3" location="BWProcessChain-change?chainId=LC_DYN_PERKZ_W" xr:uid="{C1C40E84-A93D-462B-B319-3E48BD1A540C}"/>
-    <hyperlink ref="L2" r:id="rId4" xr:uid="{B815E112-DF4A-4A6A-A208-89D4A68B3073}"/>
-    <hyperlink ref="L40" r:id="rId5" xr:uid="{5F8E6099-3933-4328-A7B9-6AADD4120355}"/>
-    <hyperlink ref="L228" r:id="rId6" xr:uid="{0A889FA1-F3A2-4F5E-A6DB-7EFD384A1B18}"/>
-    <hyperlink ref="L3" r:id="rId7" xr:uid="{98AA934F-9CE8-4A25-88E5-A2AE5ECA8184}"/>
-    <hyperlink ref="H227" r:id="rId8" xr:uid="{91DB4B05-B319-4BAE-9536-832A996B0A93}"/>
-    <hyperlink ref="H39" r:id="rId9" xr:uid="{B69C832F-9AED-4383-BEAE-88891483874D}"/>
-    <hyperlink ref="H38" r:id="rId10" xr:uid="{5168AB38-C1A4-4BD6-B77F-65D4F0E10F24}"/>
-    <hyperlink ref="H229" r:id="rId11" xr:uid="{AEDB3E06-2740-4324-9CEB-961490958D39}"/>
-    <hyperlink ref="H225" r:id="rId12" xr:uid="{40520CCD-1EAC-4359-8806-34234068BCB5}"/>
-    <hyperlink ref="H226" r:id="rId13" xr:uid="{41332EAD-A7D8-4B98-9AEA-B3C46DB09FE5}"/>
-    <hyperlink ref="H37" r:id="rId14" xr:uid="{79082468-4277-4D99-964E-5A90DAA08494}"/>
-    <hyperlink ref="H41" r:id="rId15" xr:uid="{BA35A75B-7054-45CE-8912-3BA4D8B39C31}"/>
-    <hyperlink ref="H40" r:id="rId16" xr:uid="{9C9BD80B-F08F-40DF-825D-DFE6F8944C50}"/>
-    <hyperlink ref="H228" r:id="rId17" xr:uid="{D11407FF-FDDA-44CC-ACB4-55BACEA0299A}"/>
-    <hyperlink ref="H8" r:id="rId18" xr:uid="{6F3F9826-38F4-42E7-A0B5-0FF7DE8B50D7}"/>
-    <hyperlink ref="H9" r:id="rId19" xr:uid="{2D5FB69D-2D58-4858-BE91-169CC59504A3}"/>
-    <hyperlink ref="H7" r:id="rId20" xr:uid="{B5DA7ABF-824A-4D10-A69E-FA04FBAF5468}"/>
-    <hyperlink ref="H6" r:id="rId21" xr:uid="{CCF15709-7CA0-45F4-AE32-B95BCA2149A6}"/>
-    <hyperlink ref="H5" r:id="rId22" xr:uid="{869A39E9-CC15-43F2-B4B0-115C939D74C7}"/>
+    <hyperlink ref="L14" r:id="rId1" location="BWProcessChain-change?chainId=LC_DYN_PERKZ_W" xr:uid="{C1C40E84-A93D-462B-B319-3E48BD1A540C}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{B815E112-DF4A-4A6A-A208-89D4A68B3073}"/>
+    <hyperlink ref="L40" r:id="rId3" xr:uid="{5F8E6099-3933-4328-A7B9-6AADD4120355}"/>
+    <hyperlink ref="L228" r:id="rId4" xr:uid="{0A889FA1-F3A2-4F5E-A6DB-7EFD384A1B18}"/>
+    <hyperlink ref="L3" r:id="rId5" xr:uid="{98AA934F-9CE8-4A25-88E5-A2AE5ECA8184}"/>
+    <hyperlink ref="H227" r:id="rId6" xr:uid="{91DB4B05-B319-4BAE-9536-832A996B0A93}"/>
+    <hyperlink ref="H39" r:id="rId7" xr:uid="{B69C832F-9AED-4383-BEAE-88891483874D}"/>
+    <hyperlink ref="H38" r:id="rId8" xr:uid="{5168AB38-C1A4-4BD6-B77F-65D4F0E10F24}"/>
+    <hyperlink ref="H229" r:id="rId9" xr:uid="{AEDB3E06-2740-4324-9CEB-961490958D39}"/>
+    <hyperlink ref="H225" r:id="rId10" xr:uid="{40520CCD-1EAC-4359-8806-34234068BCB5}"/>
+    <hyperlink ref="H226" r:id="rId11" xr:uid="{41332EAD-A7D8-4B98-9AEA-B3C46DB09FE5}"/>
+    <hyperlink ref="H37" r:id="rId12" xr:uid="{79082468-4277-4D99-964E-5A90DAA08494}"/>
+    <hyperlink ref="H41" r:id="rId13" xr:uid="{BA35A75B-7054-45CE-8912-3BA4D8B39C31}"/>
+    <hyperlink ref="H40" r:id="rId14" xr:uid="{9C9BD80B-F08F-40DF-825D-DFE6F8944C50}"/>
+    <hyperlink ref="H228" r:id="rId15" xr:uid="{D11407FF-FDDA-44CC-ACB4-55BACEA0299A}"/>
+    <hyperlink ref="H8" r:id="rId16" xr:uid="{6F3F9826-38F4-42E7-A0B5-0FF7DE8B50D7}"/>
+    <hyperlink ref="H9" r:id="rId17" xr:uid="{2D5FB69D-2D58-4858-BE91-169CC59504A3}"/>
+    <hyperlink ref="H7" r:id="rId18" xr:uid="{B5DA7ABF-824A-4D10-A69E-FA04FBAF5468}"/>
+    <hyperlink ref="H5" r:id="rId19" xr:uid="{0C6D7D18-0D11-4A86-949E-9A7F0B9515C4}"/>
+    <hyperlink ref="H6" r:id="rId20" xr:uid="{7F2C903F-F7B3-4A1A-95F9-E78F395A47E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId24"/>
+    <customPr name="_pios_id" r:id="rId22"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
